--- a/CumulativeTestsByTypeByCounty/2022-03-10.xlsx
+++ b/CumulativeTestsByTypeByCounty/2022-03-10.xlsx
@@ -1074,16 +1074,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="4">
-        <v>84992</v>
+        <v>85049</v>
       </c>
       <c r="C2" s="4">
-        <v>2253</v>
+        <v>2257</v>
       </c>
       <c r="D2" s="4">
-        <v>47295</v>
+        <v>47392</v>
       </c>
       <c r="E2" s="4">
-        <v>134540</v>
+        <v>134698</v>
       </c>
     </row>
     <row r="3" ht="14" customHeight="1">
@@ -1091,16 +1091,16 @@
         <v>6</v>
       </c>
       <c r="B3" s="4">
-        <v>6897</v>
+        <v>6903</v>
       </c>
       <c r="C3" s="4">
         <v>351</v>
       </c>
       <c r="D3" s="4">
-        <v>7705</v>
+        <v>7711</v>
       </c>
       <c r="E3" s="4">
-        <v>14953</v>
+        <v>14965</v>
       </c>
     </row>
     <row r="4" ht="14" customHeight="1">
@@ -1108,16 +1108,16 @@
         <v>7</v>
       </c>
       <c r="B4" s="4">
-        <v>87676</v>
+        <v>87736</v>
       </c>
       <c r="C4" s="4">
-        <v>4784</v>
+        <v>4785</v>
       </c>
       <c r="D4" s="4">
-        <v>93298</v>
+        <v>93342</v>
       </c>
       <c r="E4" s="4">
-        <v>185758</v>
+        <v>185863</v>
       </c>
     </row>
     <row r="5" ht="14" customHeight="1">
@@ -1125,16 +1125,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="4">
-        <v>19685</v>
+        <v>19711</v>
       </c>
       <c r="C5" s="4">
-        <v>3029</v>
+        <v>3031</v>
       </c>
       <c r="D5" s="4">
-        <v>16786</v>
+        <v>16801</v>
       </c>
       <c r="E5" s="4">
-        <v>39500</v>
+        <v>39543</v>
       </c>
     </row>
     <row r="6" ht="14" customHeight="1">
@@ -1142,16 +1142,16 @@
         <v>9</v>
       </c>
       <c r="B6" s="4">
-        <v>5229</v>
+        <v>5238</v>
       </c>
       <c r="C6" s="4">
-        <v>912</v>
+        <v>920</v>
       </c>
       <c r="D6" s="4">
-        <v>2270</v>
+        <v>2272</v>
       </c>
       <c r="E6" s="4">
-        <v>8411</v>
+        <v>8430</v>
       </c>
     </row>
     <row r="7" ht="14" customHeight="1">
@@ -1159,16 +1159,16 @@
         <v>10</v>
       </c>
       <c r="B7" s="4">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="C7" s="4">
         <v>344</v>
       </c>
       <c r="D7" s="4">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="E7" s="4">
-        <v>3180</v>
+        <v>3182</v>
       </c>
     </row>
     <row r="8" ht="14" customHeight="1">
@@ -1176,16 +1176,16 @@
         <v>11</v>
       </c>
       <c r="B8" s="4">
-        <v>125316</v>
+        <v>125915</v>
       </c>
       <c r="C8" s="4">
-        <v>1518</v>
+        <v>1524</v>
       </c>
       <c r="D8" s="4">
-        <v>20846</v>
+        <v>20949</v>
       </c>
       <c r="E8" s="4">
-        <v>147680</v>
+        <v>148388</v>
       </c>
     </row>
     <row r="9" ht="14" customHeight="1">
@@ -1193,16 +1193,16 @@
         <v>12</v>
       </c>
       <c r="B9" s="4">
-        <v>34135</v>
+        <v>34188</v>
       </c>
       <c r="C9" s="4">
-        <v>1953</v>
+        <v>1955</v>
       </c>
       <c r="D9" s="4">
-        <v>6778</v>
+        <v>6783</v>
       </c>
       <c r="E9" s="4">
-        <v>42866</v>
+        <v>42926</v>
       </c>
     </row>
     <row r="10" ht="14" customHeight="1">
@@ -1210,16 +1210,16 @@
         <v>13</v>
       </c>
       <c r="B10" s="4">
-        <v>2940</v>
+        <v>2942</v>
       </c>
       <c r="C10" s="4">
         <v>101</v>
       </c>
       <c r="D10" s="4">
-        <v>2549</v>
+        <v>2559</v>
       </c>
       <c r="E10" s="4">
-        <v>5590</v>
+        <v>5602</v>
       </c>
     </row>
     <row r="11" ht="14" customHeight="1">
@@ -1227,16 +1227,16 @@
         <v>14</v>
       </c>
       <c r="B11" s="4">
-        <v>16728</v>
+        <v>16747</v>
       </c>
       <c r="C11" s="4">
-        <v>934</v>
+        <v>941</v>
       </c>
       <c r="D11" s="4">
-        <v>11065</v>
+        <v>11114</v>
       </c>
       <c r="E11" s="4">
-        <v>28727</v>
+        <v>28802</v>
       </c>
     </row>
     <row r="12" ht="14" customHeight="1">
@@ -1244,16 +1244,16 @@
         <v>15</v>
       </c>
       <c r="B12" s="4">
-        <v>111646</v>
+        <v>111751</v>
       </c>
       <c r="C12" s="4">
-        <v>2900</v>
+        <v>2917</v>
       </c>
       <c r="D12" s="4">
-        <v>51343</v>
+        <v>51375</v>
       </c>
       <c r="E12" s="4">
-        <v>165889</v>
+        <v>166043</v>
       </c>
     </row>
     <row r="13" ht="14" customHeight="1">
@@ -1261,16 +1261,16 @@
         <v>16</v>
       </c>
       <c r="B13" s="4">
-        <v>2422</v>
+        <v>2424</v>
       </c>
       <c r="C13" s="4">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="D13" s="4">
-        <v>4782</v>
+        <v>4785</v>
       </c>
       <c r="E13" s="4">
-        <v>7842</v>
+        <v>7848</v>
       </c>
     </row>
     <row r="14" ht="14" customHeight="1">
@@ -1278,16 +1278,16 @@
         <v>17</v>
       </c>
       <c r="B14" s="4">
-        <v>57451</v>
+        <v>57485</v>
       </c>
       <c r="C14" s="4">
-        <v>8632</v>
+        <v>8638</v>
       </c>
       <c r="D14" s="4">
-        <v>28218</v>
+        <v>28265</v>
       </c>
       <c r="E14" s="4">
-        <v>94301</v>
+        <v>94388</v>
       </c>
     </row>
     <row r="15" ht="14" customHeight="1">
@@ -1295,16 +1295,16 @@
         <v>18</v>
       </c>
       <c r="B15" s="4">
-        <v>471349</v>
+        <v>471864</v>
       </c>
       <c r="C15" s="4">
-        <v>16350</v>
+        <v>16381</v>
       </c>
       <c r="D15" s="4">
-        <v>134403</v>
+        <v>134744</v>
       </c>
       <c r="E15" s="4">
-        <v>622102</v>
+        <v>622989</v>
       </c>
     </row>
     <row r="16" ht="14" customHeight="1">
@@ -1312,16 +1312,16 @@
         <v>19</v>
       </c>
       <c r="B16" s="4">
-        <v>5095511</v>
+        <v>5102004</v>
       </c>
       <c r="C16" s="4">
-        <v>83263</v>
+        <v>83501</v>
       </c>
       <c r="D16" s="4">
-        <v>789710</v>
+        <v>792773</v>
       </c>
       <c r="E16" s="4">
-        <v>5968484</v>
+        <v>5978278</v>
       </c>
     </row>
     <row r="17" ht="14" customHeight="1">
@@ -1329,16 +1329,16 @@
         <v>20</v>
       </c>
       <c r="B17" s="4">
-        <v>10376</v>
+        <v>10388</v>
       </c>
       <c r="C17" s="4">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="D17" s="4">
-        <v>6291</v>
+        <v>6293</v>
       </c>
       <c r="E17" s="4">
-        <v>17275</v>
+        <v>17293</v>
       </c>
     </row>
     <row r="18" ht="14" customHeight="1">
@@ -1346,7 +1346,7 @@
         <v>21</v>
       </c>
       <c r="B18" s="4">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C18" s="4">
         <v>16</v>
@@ -1355,7 +1355,7 @@
         <v>132</v>
       </c>
       <c r="E18" s="4">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="19" ht="14" customHeight="1">
@@ -1363,16 +1363,16 @@
         <v>22</v>
       </c>
       <c r="B19" s="4">
-        <v>13920</v>
+        <v>13931</v>
       </c>
       <c r="C19" s="4">
         <v>629</v>
       </c>
       <c r="D19" s="4">
-        <v>10578</v>
+        <v>10582</v>
       </c>
       <c r="E19" s="4">
-        <v>25127</v>
+        <v>25142</v>
       </c>
     </row>
     <row r="20" ht="14" customHeight="1">
@@ -1380,16 +1380,16 @@
         <v>23</v>
       </c>
       <c r="B20" s="4">
-        <v>98772</v>
+        <v>98871</v>
       </c>
       <c r="C20" s="4">
-        <v>10758</v>
+        <v>10760</v>
       </c>
       <c r="D20" s="4">
-        <v>43764</v>
+        <v>43920</v>
       </c>
       <c r="E20" s="4">
-        <v>153294</v>
+        <v>153551</v>
       </c>
     </row>
     <row r="21" ht="14" customHeight="1">
@@ -1397,16 +1397,16 @@
         <v>24</v>
       </c>
       <c r="B21" s="4">
-        <v>675910</v>
+        <v>676856</v>
       </c>
       <c r="C21" s="4">
-        <v>27521</v>
+        <v>27538</v>
       </c>
       <c r="D21" s="4">
-        <v>148136</v>
+        <v>148346</v>
       </c>
       <c r="E21" s="4">
-        <v>851567</v>
+        <v>852740</v>
       </c>
     </row>
     <row r="22" ht="14" customHeight="1">
@@ -1414,16 +1414,16 @@
         <v>25</v>
       </c>
       <c r="B22" s="4">
-        <v>512501</v>
+        <v>513000</v>
       </c>
       <c r="C22" s="4">
-        <v>14014</v>
+        <v>14046</v>
       </c>
       <c r="D22" s="4">
-        <v>60352</v>
+        <v>60553</v>
       </c>
       <c r="E22" s="4">
-        <v>586867</v>
+        <v>587599</v>
       </c>
     </row>
     <row r="23" ht="14" customHeight="1">
@@ -1431,16 +1431,16 @@
         <v>26</v>
       </c>
       <c r="B23" s="4">
-        <v>9663</v>
+        <v>9677</v>
       </c>
       <c r="C23" s="4">
         <v>181</v>
       </c>
       <c r="D23" s="4">
-        <v>3678</v>
+        <v>3681</v>
       </c>
       <c r="E23" s="4">
-        <v>13522</v>
+        <v>13539</v>
       </c>
     </row>
     <row r="24" ht="14" customHeight="1">
@@ -1448,7 +1448,7 @@
         <v>27</v>
       </c>
       <c r="B24" s="4">
-        <v>1647</v>
+        <v>1664</v>
       </c>
       <c r="C24" s="4">
         <v>142</v>
@@ -1457,7 +1457,7 @@
         <v>239</v>
       </c>
       <c r="E24" s="4">
-        <v>2028</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="25" ht="14" customHeight="1">
@@ -1465,16 +1465,16 @@
         <v>28</v>
       </c>
       <c r="B25" s="4">
-        <v>26661</v>
+        <v>26665</v>
       </c>
       <c r="C25" s="4">
         <v>1929</v>
       </c>
       <c r="D25" s="4">
-        <v>7309</v>
+        <v>7315</v>
       </c>
       <c r="E25" s="4">
-        <v>35899</v>
+        <v>35909</v>
       </c>
     </row>
     <row r="26" ht="14" customHeight="1">
@@ -1482,16 +1482,16 @@
         <v>29</v>
       </c>
       <c r="B26" s="4">
-        <v>30621</v>
+        <v>30642</v>
       </c>
       <c r="C26" s="4">
         <v>1274</v>
       </c>
       <c r="D26" s="4">
-        <v>52229</v>
+        <v>52373</v>
       </c>
       <c r="E26" s="4">
-        <v>84124</v>
+        <v>84289</v>
       </c>
     </row>
     <row r="27" ht="14" customHeight="1">
@@ -1499,16 +1499,16 @@
         <v>30</v>
       </c>
       <c r="B27" s="4">
-        <v>29860</v>
+        <v>29890</v>
       </c>
       <c r="C27" s="4">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="D27" s="4">
-        <v>8177</v>
+        <v>8185</v>
       </c>
       <c r="E27" s="4">
-        <v>38931</v>
+        <v>38971</v>
       </c>
     </row>
     <row r="28" ht="14" customHeight="1">
@@ -1516,16 +1516,16 @@
         <v>31</v>
       </c>
       <c r="B28" s="4">
-        <v>65608</v>
+        <v>65659</v>
       </c>
       <c r="C28" s="4">
-        <v>2768</v>
+        <v>2802</v>
       </c>
       <c r="D28" s="4">
-        <v>17198</v>
+        <v>17234</v>
       </c>
       <c r="E28" s="4">
-        <v>85574</v>
+        <v>85695</v>
       </c>
     </row>
     <row r="29" ht="14" customHeight="1">
@@ -1533,16 +1533,16 @@
         <v>32</v>
       </c>
       <c r="B29" s="4">
-        <v>71466</v>
+        <v>71532</v>
       </c>
       <c r="C29" s="4">
-        <v>2393</v>
+        <v>2396</v>
       </c>
       <c r="D29" s="4">
-        <v>21114</v>
+        <v>21125</v>
       </c>
       <c r="E29" s="4">
-        <v>94973</v>
+        <v>95053</v>
       </c>
     </row>
     <row r="30" ht="14" customHeight="1">
@@ -1550,16 +1550,16 @@
         <v>33</v>
       </c>
       <c r="B30" s="4">
-        <v>23301</v>
+        <v>23320</v>
       </c>
       <c r="C30" s="4">
-        <v>2604</v>
+        <v>2613</v>
       </c>
       <c r="D30" s="4">
-        <v>17974</v>
+        <v>17983</v>
       </c>
       <c r="E30" s="4">
-        <v>43879</v>
+        <v>43916</v>
       </c>
     </row>
     <row r="31" ht="14" customHeight="1">
@@ -1567,16 +1567,16 @@
         <v>34</v>
       </c>
       <c r="B31" s="4">
-        <v>7832</v>
+        <v>7835</v>
       </c>
       <c r="C31" s="4">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D31" s="4">
-        <v>14121</v>
+        <v>14142</v>
       </c>
       <c r="E31" s="4">
-        <v>22314</v>
+        <v>22340</v>
       </c>
     </row>
     <row r="32" ht="14" customHeight="1">
@@ -1584,16 +1584,16 @@
         <v>35</v>
       </c>
       <c r="B32" s="4">
-        <v>512450</v>
+        <v>513577</v>
       </c>
       <c r="C32" s="4">
-        <v>12338</v>
+        <v>12364</v>
       </c>
       <c r="D32" s="4">
-        <v>187097</v>
+        <v>187615</v>
       </c>
       <c r="E32" s="4">
-        <v>711885</v>
+        <v>713556</v>
       </c>
     </row>
     <row r="33" ht="14" customHeight="1">
@@ -1601,16 +1601,16 @@
         <v>36</v>
       </c>
       <c r="B33" s="4">
-        <v>10953</v>
+        <v>10974</v>
       </c>
       <c r="C33" s="4">
         <v>590</v>
       </c>
       <c r="D33" s="4">
-        <v>4598</v>
+        <v>4613</v>
       </c>
       <c r="E33" s="4">
-        <v>16141</v>
+        <v>16177</v>
       </c>
     </row>
     <row r="34" ht="14" customHeight="1">
@@ -1618,16 +1618,16 @@
         <v>37</v>
       </c>
       <c r="B34" s="4">
-        <v>3607</v>
+        <v>3613</v>
       </c>
       <c r="C34" s="4">
         <v>1150</v>
       </c>
       <c r="D34" s="4">
-        <v>1867</v>
+        <v>1871</v>
       </c>
       <c r="E34" s="4">
-        <v>6624</v>
+        <v>6634</v>
       </c>
     </row>
     <row r="35" ht="14" customHeight="1">
@@ -1635,16 +1635,16 @@
         <v>38</v>
       </c>
       <c r="B35" s="4">
-        <v>22075</v>
+        <v>22095</v>
       </c>
       <c r="C35" s="4">
-        <v>3411</v>
+        <v>3413</v>
       </c>
       <c r="D35" s="4">
-        <v>16757</v>
+        <v>16853</v>
       </c>
       <c r="E35" s="4">
-        <v>42243</v>
+        <v>42361</v>
       </c>
     </row>
     <row r="36" ht="14" customHeight="1">
@@ -1652,16 +1652,16 @@
         <v>39</v>
       </c>
       <c r="B36" s="4">
-        <v>9591</v>
+        <v>9656</v>
       </c>
       <c r="C36" s="4">
         <v>453</v>
       </c>
       <c r="D36" s="4">
-        <v>4490</v>
+        <v>4492</v>
       </c>
       <c r="E36" s="4">
-        <v>14534</v>
+        <v>14601</v>
       </c>
     </row>
     <row r="37" ht="14" customHeight="1">
@@ -1669,16 +1669,16 @@
         <v>40</v>
       </c>
       <c r="B37" s="4">
-        <v>16332</v>
+        <v>16368</v>
       </c>
       <c r="C37" s="4">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="D37" s="4">
-        <v>4335</v>
+        <v>4349</v>
       </c>
       <c r="E37" s="4">
-        <v>21602</v>
+        <v>21653</v>
       </c>
     </row>
     <row r="38" ht="14" customHeight="1">
@@ -1686,16 +1686,16 @@
         <v>41</v>
       </c>
       <c r="B38" s="4">
-        <v>41406</v>
+        <v>41454</v>
       </c>
       <c r="C38" s="4">
         <v>1390</v>
       </c>
       <c r="D38" s="4">
-        <v>37379</v>
+        <v>37482</v>
       </c>
       <c r="E38" s="4">
-        <v>80175</v>
+        <v>80326</v>
       </c>
     </row>
     <row r="39" ht="14" customHeight="1">
@@ -1703,16 +1703,16 @@
         <v>42</v>
       </c>
       <c r="B39" s="4">
-        <v>8566</v>
+        <v>8588</v>
       </c>
       <c r="C39" s="4">
         <v>479</v>
       </c>
       <c r="D39" s="4">
-        <v>6938</v>
+        <v>6941</v>
       </c>
       <c r="E39" s="4">
-        <v>15983</v>
+        <v>16008</v>
       </c>
     </row>
     <row r="40" ht="14" customHeight="1">
@@ -1720,16 +1720,16 @@
         <v>43</v>
       </c>
       <c r="B40" s="4">
-        <v>7457</v>
+        <v>7471</v>
       </c>
       <c r="C40" s="4">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="D40" s="4">
-        <v>7010</v>
+        <v>7021</v>
       </c>
       <c r="E40" s="4">
-        <v>15224</v>
+        <v>15251</v>
       </c>
     </row>
     <row r="41" ht="14" customHeight="1">
@@ -1743,10 +1743,10 @@
         <v>30</v>
       </c>
       <c r="D41" s="4">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="E41" s="4">
-        <v>2654</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="42" ht="14" customHeight="1">
@@ -1754,16 +1754,16 @@
         <v>45</v>
       </c>
       <c r="B42" s="4">
-        <v>3122</v>
+        <v>3125</v>
       </c>
       <c r="C42" s="4">
         <v>75</v>
       </c>
       <c r="D42" s="4">
-        <v>4078</v>
+        <v>4080</v>
       </c>
       <c r="E42" s="4">
-        <v>7275</v>
+        <v>7280</v>
       </c>
     </row>
     <row r="43" ht="14" customHeight="1">
@@ -1771,16 +1771,16 @@
         <v>46</v>
       </c>
       <c r="B43" s="4">
-        <v>5062</v>
+        <v>5063</v>
       </c>
       <c r="C43" s="4">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D43" s="4">
-        <v>5938</v>
+        <v>5946</v>
       </c>
       <c r="E43" s="4">
-        <v>11190</v>
+        <v>11201</v>
       </c>
     </row>
     <row r="44" ht="14" customHeight="1">
@@ -1788,16 +1788,16 @@
         <v>47</v>
       </c>
       <c r="B44" s="4">
-        <v>1861638</v>
+        <v>1864028</v>
       </c>
       <c r="C44" s="4">
-        <v>119982</v>
+        <v>120184</v>
       </c>
       <c r="D44" s="4">
-        <v>412309</v>
+        <v>413765</v>
       </c>
       <c r="E44" s="4">
-        <v>2393929</v>
+        <v>2397977</v>
       </c>
     </row>
     <row r="45" ht="14" customHeight="1">
@@ -1805,16 +1805,16 @@
         <v>48</v>
       </c>
       <c r="B45" s="4">
-        <v>2264</v>
+        <v>2269</v>
       </c>
       <c r="C45" s="4">
         <v>146</v>
       </c>
       <c r="D45" s="4">
-        <v>3898</v>
+        <v>3911</v>
       </c>
       <c r="E45" s="4">
-        <v>6308</v>
+        <v>6326</v>
       </c>
     </row>
     <row r="46" ht="14" customHeight="1">
@@ -1822,16 +1822,16 @@
         <v>49</v>
       </c>
       <c r="B46" s="4">
-        <v>21943</v>
+        <v>21974</v>
       </c>
       <c r="C46" s="4">
-        <v>1264</v>
+        <v>1267</v>
       </c>
       <c r="D46" s="4">
-        <v>13018</v>
+        <v>13028</v>
       </c>
       <c r="E46" s="4">
-        <v>36225</v>
+        <v>36269</v>
       </c>
     </row>
     <row r="47" ht="14" customHeight="1">
@@ -1839,16 +1839,16 @@
         <v>50</v>
       </c>
       <c r="B47" s="4">
-        <v>222864</v>
+        <v>223168</v>
       </c>
       <c r="C47" s="4">
-        <v>14288</v>
+        <v>14340</v>
       </c>
       <c r="D47" s="4">
-        <v>67801</v>
+        <v>68456</v>
       </c>
       <c r="E47" s="4">
-        <v>304953</v>
+        <v>305964</v>
       </c>
     </row>
     <row r="48" ht="14" customHeight="1">
@@ -1856,16 +1856,16 @@
         <v>51</v>
       </c>
       <c r="B48" s="4">
-        <v>13033</v>
+        <v>13045</v>
       </c>
       <c r="C48" s="4">
         <v>395</v>
       </c>
       <c r="D48" s="4">
-        <v>8013</v>
+        <v>8137</v>
       </c>
       <c r="E48" s="4">
-        <v>21441</v>
+        <v>21577</v>
       </c>
     </row>
     <row r="49" ht="14" customHeight="1">
@@ -1873,16 +1873,16 @@
         <v>52</v>
       </c>
       <c r="B49" s="4">
-        <v>2646</v>
+        <v>2653</v>
       </c>
       <c r="C49" s="4">
         <v>40</v>
       </c>
       <c r="D49" s="4">
-        <v>5630</v>
+        <v>5654</v>
       </c>
       <c r="E49" s="4">
-        <v>8316</v>
+        <v>8347</v>
       </c>
     </row>
     <row r="50" ht="14" customHeight="1">
@@ -1890,16 +1890,16 @@
         <v>53</v>
       </c>
       <c r="B50" s="4">
-        <v>35803</v>
+        <v>35830</v>
       </c>
       <c r="C50" s="4">
-        <v>2574</v>
+        <v>2581</v>
       </c>
       <c r="D50" s="4">
-        <v>15985</v>
+        <v>16044</v>
       </c>
       <c r="E50" s="4">
-        <v>54362</v>
+        <v>54455</v>
       </c>
     </row>
     <row r="51" ht="14" customHeight="1">
@@ -1907,16 +1907,16 @@
         <v>54</v>
       </c>
       <c r="B51" s="4">
-        <v>150669</v>
+        <v>150727</v>
       </c>
       <c r="C51" s="4">
-        <v>2522</v>
+        <v>2524</v>
       </c>
       <c r="D51" s="4">
-        <v>36530</v>
+        <v>36550</v>
       </c>
       <c r="E51" s="4">
-        <v>189721</v>
+        <v>189801</v>
       </c>
     </row>
     <row r="52" ht="14" customHeight="1">
@@ -1941,16 +1941,16 @@
         <v>56</v>
       </c>
       <c r="B53" s="4">
-        <v>5109</v>
+        <v>5110</v>
       </c>
       <c r="C53" s="4">
         <v>100</v>
       </c>
       <c r="D53" s="4">
-        <v>5234</v>
+        <v>5250</v>
       </c>
       <c r="E53" s="4">
-        <v>10443</v>
+        <v>10460</v>
       </c>
     </row>
     <row r="54" ht="14" customHeight="1">
@@ -1958,16 +1958,16 @@
         <v>57</v>
       </c>
       <c r="B54" s="4">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="C54" s="4">
         <v>27</v>
       </c>
       <c r="D54" s="4">
-        <v>6048</v>
+        <v>6051</v>
       </c>
       <c r="E54" s="4">
-        <v>7359</v>
+        <v>7363</v>
       </c>
     </row>
     <row r="55" ht="14" customHeight="1">
@@ -1975,16 +1975,16 @@
         <v>58</v>
       </c>
       <c r="B55" s="4">
-        <v>4247</v>
+        <v>4250</v>
       </c>
       <c r="C55" s="4">
         <v>82</v>
       </c>
       <c r="D55" s="4">
-        <v>4465</v>
+        <v>4468</v>
       </c>
       <c r="E55" s="4">
-        <v>8794</v>
+        <v>8800</v>
       </c>
     </row>
     <row r="56" ht="14" customHeight="1">
@@ -1992,16 +1992,16 @@
         <v>59</v>
       </c>
       <c r="B56" s="4">
-        <v>3126</v>
+        <v>3127</v>
       </c>
       <c r="C56" s="4">
         <v>42</v>
       </c>
       <c r="D56" s="4">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="E56" s="4">
-        <v>3646</v>
+        <v>3650</v>
       </c>
     </row>
     <row r="57" ht="14" customHeight="1">
@@ -2009,16 +2009,16 @@
         <v>60</v>
       </c>
       <c r="B57" s="4">
-        <v>4465</v>
+        <v>4471</v>
       </c>
       <c r="C57" s="4">
         <v>609</v>
       </c>
       <c r="D57" s="4">
-        <v>4357</v>
+        <v>4359</v>
       </c>
       <c r="E57" s="4">
-        <v>9431</v>
+        <v>9439</v>
       </c>
     </row>
     <row r="58" ht="14" customHeight="1">
@@ -2026,16 +2026,16 @@
         <v>61</v>
       </c>
       <c r="B58" s="4">
-        <v>4438414</v>
+        <v>4444361</v>
       </c>
       <c r="C58" s="4">
-        <v>177594</v>
+        <v>177832</v>
       </c>
       <c r="D58" s="4">
-        <v>783905</v>
+        <v>785903</v>
       </c>
       <c r="E58" s="4">
-        <v>5399913</v>
+        <v>5408096</v>
       </c>
     </row>
     <row r="59" ht="14" customHeight="1">
@@ -2043,16 +2043,16 @@
         <v>62</v>
       </c>
       <c r="B59" s="4">
-        <v>12358</v>
+        <v>12364</v>
       </c>
       <c r="C59" s="4">
         <v>644</v>
       </c>
       <c r="D59" s="4">
-        <v>7342</v>
+        <v>7348</v>
       </c>
       <c r="E59" s="4">
-        <v>20344</v>
+        <v>20356</v>
       </c>
     </row>
     <row r="60" ht="14" customHeight="1">
@@ -2060,16 +2060,16 @@
         <v>63</v>
       </c>
       <c r="B60" s="4">
-        <v>17955</v>
+        <v>17977</v>
       </c>
       <c r="C60" s="4">
         <v>692</v>
       </c>
       <c r="D60" s="4">
-        <v>9111</v>
+        <v>9217</v>
       </c>
       <c r="E60" s="4">
-        <v>27758</v>
+        <v>27886</v>
       </c>
     </row>
     <row r="61" ht="14" customHeight="1">
@@ -2077,16 +2077,16 @@
         <v>64</v>
       </c>
       <c r="B61" s="4">
-        <v>9391</v>
+        <v>9420</v>
       </c>
       <c r="C61" s="4">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="D61" s="4">
-        <v>8764</v>
+        <v>8774</v>
       </c>
       <c r="E61" s="4">
-        <v>19461</v>
+        <v>19501</v>
       </c>
     </row>
     <row r="62" ht="14" customHeight="1">
@@ -2094,16 +2094,16 @@
         <v>65</v>
       </c>
       <c r="B62" s="4">
-        <v>3514</v>
+        <v>3518</v>
       </c>
       <c r="C62" s="4">
         <v>265</v>
       </c>
       <c r="D62" s="4">
-        <v>3934</v>
+        <v>3971</v>
       </c>
       <c r="E62" s="4">
-        <v>7713</v>
+        <v>7754</v>
       </c>
     </row>
     <row r="63" ht="14" customHeight="1">
@@ -2111,16 +2111,16 @@
         <v>66</v>
       </c>
       <c r="B63" s="4">
-        <v>1088631</v>
+        <v>1089805</v>
       </c>
       <c r="C63" s="4">
-        <v>85466</v>
+        <v>85526</v>
       </c>
       <c r="D63" s="4">
-        <v>323733</v>
+        <v>324749</v>
       </c>
       <c r="E63" s="4">
-        <v>1497830</v>
+        <v>1500080</v>
       </c>
     </row>
     <row r="64" ht="14" customHeight="1">
@@ -2128,7 +2128,7 @@
         <v>67</v>
       </c>
       <c r="B64" s="4">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="C64" s="4">
         <v>22</v>
@@ -2137,7 +2137,7 @@
         <v>1287</v>
       </c>
       <c r="E64" s="4">
-        <v>2278</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="65" ht="14" customHeight="1">
@@ -2145,16 +2145,16 @@
         <v>68</v>
       </c>
       <c r="B65" s="4">
-        <v>37049</v>
+        <v>37139</v>
       </c>
       <c r="C65" s="4">
         <v>137</v>
       </c>
       <c r="D65" s="4">
-        <v>47674</v>
+        <v>47758</v>
       </c>
       <c r="E65" s="4">
-        <v>84860</v>
+        <v>85034</v>
       </c>
     </row>
     <row r="66" ht="14" customHeight="1">
@@ -2162,16 +2162,16 @@
         <v>69</v>
       </c>
       <c r="B66" s="4">
-        <v>2366</v>
+        <v>2368</v>
       </c>
       <c r="C66" s="4">
         <v>507</v>
       </c>
       <c r="D66" s="4">
-        <v>2576</v>
+        <v>2583</v>
       </c>
       <c r="E66" s="4">
-        <v>5449</v>
+        <v>5458</v>
       </c>
     </row>
     <row r="67" ht="14" customHeight="1">
@@ -2179,16 +2179,16 @@
         <v>70</v>
       </c>
       <c r="B67" s="4">
-        <v>27317</v>
+        <v>27340</v>
       </c>
       <c r="C67" s="4">
         <v>3541</v>
       </c>
       <c r="D67" s="4">
-        <v>14082</v>
+        <v>14087</v>
       </c>
       <c r="E67" s="4">
-        <v>44940</v>
+        <v>44968</v>
       </c>
     </row>
     <row r="68" ht="14" customHeight="1">
@@ -2196,16 +2196,16 @@
         <v>71</v>
       </c>
       <c r="B68" s="4">
-        <v>8531</v>
+        <v>8545</v>
       </c>
       <c r="C68" s="4">
         <v>576</v>
       </c>
       <c r="D68" s="4">
-        <v>10343</v>
+        <v>10367</v>
       </c>
       <c r="E68" s="4">
-        <v>19450</v>
+        <v>19488</v>
       </c>
     </row>
     <row r="69" ht="14" customHeight="1">
@@ -2213,16 +2213,16 @@
         <v>72</v>
       </c>
       <c r="B69" s="4">
-        <v>108754</v>
+        <v>108871</v>
       </c>
       <c r="C69" s="4">
-        <v>6725</v>
+        <v>6734</v>
       </c>
       <c r="D69" s="4">
-        <v>84027</v>
+        <v>84316</v>
       </c>
       <c r="E69" s="4">
-        <v>199506</v>
+        <v>199921</v>
       </c>
     </row>
     <row r="70" ht="14" customHeight="1">
@@ -2236,10 +2236,10 @@
         <v>46</v>
       </c>
       <c r="D70" s="4">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="E70" s="4">
-        <v>2715</v>
+        <v>2716</v>
       </c>
     </row>
     <row r="71" ht="14" customHeight="1">
@@ -2247,16 +2247,16 @@
         <v>74</v>
       </c>
       <c r="B71" s="4">
-        <v>1504299</v>
+        <v>1506266</v>
       </c>
       <c r="C71" s="4">
-        <v>24153</v>
+        <v>24164</v>
       </c>
       <c r="D71" s="4">
-        <v>694980</v>
+        <v>696165</v>
       </c>
       <c r="E71" s="4">
-        <v>2223432</v>
+        <v>2226595</v>
       </c>
     </row>
     <row r="72" ht="14" customHeight="1">
@@ -2264,16 +2264,16 @@
         <v>75</v>
       </c>
       <c r="B72" s="4">
-        <v>292184</v>
+        <v>292570</v>
       </c>
       <c r="C72" s="4">
-        <v>10179</v>
+        <v>10193</v>
       </c>
       <c r="D72" s="4">
-        <v>69572</v>
+        <v>69725</v>
       </c>
       <c r="E72" s="4">
-        <v>371935</v>
+        <v>372488</v>
       </c>
     </row>
     <row r="73" ht="14" customHeight="1">
@@ -2281,16 +2281,16 @@
         <v>76</v>
       </c>
       <c r="B73" s="4">
-        <v>37937</v>
+        <v>37991</v>
       </c>
       <c r="C73" s="4">
-        <v>2304</v>
+        <v>2318</v>
       </c>
       <c r="D73" s="4">
-        <v>17471</v>
+        <v>17496</v>
       </c>
       <c r="E73" s="4">
-        <v>57712</v>
+        <v>57805</v>
       </c>
     </row>
     <row r="74" ht="14" customHeight="1">
@@ -2298,16 +2298,16 @@
         <v>77</v>
       </c>
       <c r="B74" s="4">
-        <v>20050</v>
+        <v>20055</v>
       </c>
       <c r="C74" s="4">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="D74" s="4">
-        <v>12061</v>
+        <v>12141</v>
       </c>
       <c r="E74" s="4">
-        <v>32614</v>
+        <v>32701</v>
       </c>
     </row>
     <row r="75" ht="14" customHeight="1">
@@ -2315,16 +2315,16 @@
         <v>78</v>
       </c>
       <c r="B75" s="4">
-        <v>48821</v>
+        <v>48850</v>
       </c>
       <c r="C75" s="4">
-        <v>1224</v>
+        <v>1226</v>
       </c>
       <c r="D75" s="4">
-        <v>14155</v>
+        <v>14211</v>
       </c>
       <c r="E75" s="4">
-        <v>64200</v>
+        <v>64287</v>
       </c>
     </row>
     <row r="76" ht="14" customHeight="1">
@@ -2332,16 +2332,16 @@
         <v>79</v>
       </c>
       <c r="B76" s="4">
-        <v>26451</v>
+        <v>26525</v>
       </c>
       <c r="C76" s="4">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="D76" s="4">
-        <v>9302</v>
+        <v>9308</v>
       </c>
       <c r="E76" s="4">
-        <v>36866</v>
+        <v>36948</v>
       </c>
     </row>
     <row r="77" ht="14" customHeight="1">
@@ -2349,16 +2349,16 @@
         <v>80</v>
       </c>
       <c r="B77" s="4">
-        <v>1864</v>
+        <v>1867</v>
       </c>
       <c r="C77" s="4">
         <v>49</v>
       </c>
       <c r="D77" s="4">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="E77" s="4">
-        <v>2882</v>
+        <v>2888</v>
       </c>
     </row>
     <row r="78" ht="14" customHeight="1">
@@ -2366,16 +2366,16 @@
         <v>81</v>
       </c>
       <c r="B78" s="4">
-        <v>5621</v>
+        <v>5628</v>
       </c>
       <c r="C78" s="4">
         <v>176</v>
       </c>
       <c r="D78" s="4">
-        <v>1066</v>
+        <v>1072</v>
       </c>
       <c r="E78" s="4">
-        <v>6863</v>
+        <v>6876</v>
       </c>
     </row>
     <row r="79" ht="14" customHeight="1">
@@ -2389,10 +2389,10 @@
         <v>166</v>
       </c>
       <c r="D79" s="4">
-        <v>2508</v>
+        <v>2510</v>
       </c>
       <c r="E79" s="4">
-        <v>3458</v>
+        <v>3460</v>
       </c>
     </row>
     <row r="80" ht="14" customHeight="1">
@@ -2400,16 +2400,16 @@
         <v>83</v>
       </c>
       <c r="B80" s="4">
-        <v>1397799</v>
+        <v>1400626</v>
       </c>
       <c r="C80" s="4">
-        <v>53620</v>
+        <v>53707</v>
       </c>
       <c r="D80" s="4">
-        <v>209865</v>
+        <v>210358</v>
       </c>
       <c r="E80" s="4">
-        <v>1661284</v>
+        <v>1664691</v>
       </c>
     </row>
     <row r="81" ht="14" customHeight="1">
@@ -2417,16 +2417,16 @@
         <v>84</v>
       </c>
       <c r="B81" s="4">
-        <v>8174</v>
+        <v>8187</v>
       </c>
       <c r="C81" s="4">
         <v>636</v>
       </c>
       <c r="D81" s="4">
-        <v>2232</v>
+        <v>2238</v>
       </c>
       <c r="E81" s="4">
-        <v>11042</v>
+        <v>11061</v>
       </c>
     </row>
     <row r="82" ht="14" customHeight="1">
@@ -2434,16 +2434,16 @@
         <v>85</v>
       </c>
       <c r="B82" s="4">
-        <v>26663</v>
+        <v>26679</v>
       </c>
       <c r="C82" s="4">
         <v>895</v>
       </c>
       <c r="D82" s="4">
-        <v>24121</v>
+        <v>24135</v>
       </c>
       <c r="E82" s="4">
-        <v>51679</v>
+        <v>51709</v>
       </c>
     </row>
     <row r="83" ht="14" customHeight="1">
@@ -2451,16 +2451,16 @@
         <v>86</v>
       </c>
       <c r="B83" s="4">
-        <v>38590</v>
+        <v>38766</v>
       </c>
       <c r="C83" s="4">
         <v>590</v>
       </c>
       <c r="D83" s="4">
-        <v>10388</v>
+        <v>10410</v>
       </c>
       <c r="E83" s="4">
-        <v>49568</v>
+        <v>49766</v>
       </c>
     </row>
     <row r="84" ht="14" customHeight="1">
@@ -2468,16 +2468,16 @@
         <v>87</v>
       </c>
       <c r="B84" s="4">
-        <v>5799</v>
+        <v>5801</v>
       </c>
       <c r="C84" s="4">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="D84" s="4">
-        <v>3097</v>
+        <v>3126</v>
       </c>
       <c r="E84" s="4">
-        <v>9211</v>
+        <v>9246</v>
       </c>
     </row>
     <row r="85" ht="14" customHeight="1">
@@ -2485,16 +2485,16 @@
         <v>88</v>
       </c>
       <c r="B85" s="4">
-        <v>720699</v>
+        <v>721956</v>
       </c>
       <c r="C85" s="4">
-        <v>28686</v>
+        <v>28730</v>
       </c>
       <c r="D85" s="4">
-        <v>127422</v>
+        <v>127807</v>
       </c>
       <c r="E85" s="4">
-        <v>876807</v>
+        <v>878493</v>
       </c>
     </row>
     <row r="86" ht="14" customHeight="1">
@@ -2502,16 +2502,16 @@
         <v>89</v>
       </c>
       <c r="B86" s="4">
-        <v>4863</v>
+        <v>4881</v>
       </c>
       <c r="C86" s="4">
         <v>77</v>
       </c>
       <c r="D86" s="4">
-        <v>2214</v>
+        <v>2216</v>
       </c>
       <c r="E86" s="4">
-        <v>7154</v>
+        <v>7174</v>
       </c>
     </row>
     <row r="87" ht="14" customHeight="1">
@@ -2519,16 +2519,16 @@
         <v>90</v>
       </c>
       <c r="B87" s="4">
-        <v>24206</v>
+        <v>24239</v>
       </c>
       <c r="C87" s="4">
-        <v>1189</v>
+        <v>1203</v>
       </c>
       <c r="D87" s="4">
-        <v>14331</v>
+        <v>14365</v>
       </c>
       <c r="E87" s="4">
-        <v>39726</v>
+        <v>39807</v>
       </c>
     </row>
     <row r="88" ht="14" customHeight="1">
@@ -2536,16 +2536,16 @@
         <v>91</v>
       </c>
       <c r="B88" s="4">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C88" s="4">
         <v>56</v>
       </c>
       <c r="D88" s="4">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E88" s="4">
-        <v>592</v>
+        <v>595</v>
       </c>
     </row>
     <row r="89" ht="14" customHeight="1">
@@ -2553,16 +2553,16 @@
         <v>92</v>
       </c>
       <c r="B89" s="4">
-        <v>5478</v>
+        <v>5482</v>
       </c>
       <c r="C89" s="4">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D89" s="4">
-        <v>4165</v>
+        <v>4168</v>
       </c>
       <c r="E89" s="4">
-        <v>10057</v>
+        <v>10066</v>
       </c>
     </row>
     <row r="90" ht="14" customHeight="1">
@@ -2570,16 +2570,16 @@
         <v>93</v>
       </c>
       <c r="B90" s="4">
-        <v>18909</v>
+        <v>18918</v>
       </c>
       <c r="C90" s="4">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="D90" s="4">
-        <v>15573</v>
+        <v>15616</v>
       </c>
       <c r="E90" s="4">
-        <v>35035</v>
+        <v>35089</v>
       </c>
     </row>
     <row r="91" ht="14" customHeight="1">
@@ -2587,16 +2587,16 @@
         <v>94</v>
       </c>
       <c r="B91" s="4">
-        <v>14794</v>
+        <v>14803</v>
       </c>
       <c r="C91" s="4">
         <v>1385</v>
       </c>
       <c r="D91" s="4">
-        <v>14267</v>
+        <v>14295</v>
       </c>
       <c r="E91" s="4">
-        <v>30446</v>
+        <v>30483</v>
       </c>
     </row>
     <row r="92" ht="14" customHeight="1">
@@ -2604,16 +2604,16 @@
         <v>95</v>
       </c>
       <c r="B92" s="4">
-        <v>194594</v>
+        <v>194860</v>
       </c>
       <c r="C92" s="4">
-        <v>6716</v>
+        <v>6746</v>
       </c>
       <c r="D92" s="4">
-        <v>63196</v>
+        <v>63468</v>
       </c>
       <c r="E92" s="4">
-        <v>264506</v>
+        <v>265074</v>
       </c>
     </row>
     <row r="93" ht="14" customHeight="1">
@@ -2621,16 +2621,16 @@
         <v>96</v>
       </c>
       <c r="B93" s="4">
-        <v>91957</v>
+        <v>92053</v>
       </c>
       <c r="C93" s="4">
-        <v>12586</v>
+        <v>12602</v>
       </c>
       <c r="D93" s="4">
-        <v>53158</v>
+        <v>53399</v>
       </c>
       <c r="E93" s="4">
-        <v>157701</v>
+        <v>158054</v>
       </c>
     </row>
     <row r="94" ht="14" customHeight="1">
@@ -2638,16 +2638,16 @@
         <v>97</v>
       </c>
       <c r="B94" s="4">
-        <v>62665</v>
+        <v>62715</v>
       </c>
       <c r="C94" s="4">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="D94" s="4">
-        <v>16677</v>
+        <v>16709</v>
       </c>
       <c r="E94" s="4">
-        <v>80906</v>
+        <v>80989</v>
       </c>
     </row>
     <row r="95" ht="14" customHeight="1">
@@ -2655,16 +2655,16 @@
         <v>98</v>
       </c>
       <c r="B95" s="4">
-        <v>173715</v>
+        <v>174012</v>
       </c>
       <c r="C95" s="4">
-        <v>6863</v>
+        <v>6888</v>
       </c>
       <c r="D95" s="4">
-        <v>60985</v>
+        <v>61356</v>
       </c>
       <c r="E95" s="4">
-        <v>241563</v>
+        <v>242256</v>
       </c>
     </row>
     <row r="96" ht="14" customHeight="1">
@@ -2672,16 +2672,16 @@
         <v>99</v>
       </c>
       <c r="B96" s="4">
-        <v>35492</v>
+        <v>35518</v>
       </c>
       <c r="C96" s="4">
         <v>563</v>
       </c>
       <c r="D96" s="4">
-        <v>10181</v>
+        <v>10192</v>
       </c>
       <c r="E96" s="4">
-        <v>46236</v>
+        <v>46273</v>
       </c>
     </row>
     <row r="97" ht="14" customHeight="1">
@@ -2689,16 +2689,16 @@
         <v>100</v>
       </c>
       <c r="B97" s="4">
-        <v>2847</v>
+        <v>2860</v>
       </c>
       <c r="C97" s="4">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D97" s="4">
-        <v>3782</v>
+        <v>3802</v>
       </c>
       <c r="E97" s="4">
-        <v>6711</v>
+        <v>6745</v>
       </c>
     </row>
     <row r="98" ht="14" customHeight="1">
@@ -2706,16 +2706,16 @@
         <v>101</v>
       </c>
       <c r="B98" s="4">
-        <v>12616</v>
+        <v>12633</v>
       </c>
       <c r="C98" s="4">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="D98" s="4">
-        <v>5754</v>
+        <v>5757</v>
       </c>
       <c r="E98" s="4">
-        <v>18861</v>
+        <v>18885</v>
       </c>
     </row>
     <row r="99" ht="14" customHeight="1">
@@ -2723,7 +2723,7 @@
         <v>102</v>
       </c>
       <c r="B99" s="4">
-        <v>2393</v>
+        <v>2396</v>
       </c>
       <c r="C99" s="4">
         <v>874</v>
@@ -2732,7 +2732,7 @@
         <v>5017</v>
       </c>
       <c r="E99" s="4">
-        <v>8284</v>
+        <v>8287</v>
       </c>
     </row>
     <row r="100" ht="14" customHeight="1">
@@ -2740,16 +2740,16 @@
         <v>103</v>
       </c>
       <c r="B100" s="4">
-        <v>2845</v>
+        <v>2848</v>
       </c>
       <c r="C100" s="4">
         <v>332</v>
       </c>
       <c r="D100" s="4">
-        <v>4242</v>
+        <v>4247</v>
       </c>
       <c r="E100" s="4">
-        <v>7419</v>
+        <v>7427</v>
       </c>
     </row>
     <row r="101" ht="14" customHeight="1">
@@ -2757,16 +2757,16 @@
         <v>104</v>
       </c>
       <c r="B101" s="4">
-        <v>49028</v>
+        <v>49061</v>
       </c>
       <c r="C101" s="4">
-        <v>4773</v>
+        <v>4781</v>
       </c>
       <c r="D101" s="4">
-        <v>32489</v>
+        <v>32513</v>
       </c>
       <c r="E101" s="4">
-        <v>86290</v>
+        <v>86355</v>
       </c>
     </row>
     <row r="102" ht="14" customHeight="1">
@@ -2774,16 +2774,16 @@
         <v>105</v>
       </c>
       <c r="B102" s="4">
-        <v>8699145</v>
+        <v>8718792</v>
       </c>
       <c r="C102" s="4">
-        <v>288936</v>
+        <v>289295</v>
       </c>
       <c r="D102" s="4">
-        <v>1296003</v>
+        <v>1299303</v>
       </c>
       <c r="E102" s="4">
-        <v>10284084</v>
+        <v>10307390</v>
       </c>
     </row>
     <row r="103" ht="14" customHeight="1">
@@ -2791,16 +2791,16 @@
         <v>106</v>
       </c>
       <c r="B103" s="4">
-        <v>92266</v>
+        <v>92331</v>
       </c>
       <c r="C103" s="4">
-        <v>9607</v>
+        <v>9621</v>
       </c>
       <c r="D103" s="4">
-        <v>39964</v>
+        <v>40125</v>
       </c>
       <c r="E103" s="4">
-        <v>141837</v>
+        <v>142077</v>
       </c>
     </row>
     <row r="104" ht="14" customHeight="1">
@@ -2808,16 +2808,16 @@
         <v>107</v>
       </c>
       <c r="B104" s="4">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C104" s="4">
         <v>81</v>
       </c>
       <c r="D104" s="4">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E104" s="4">
-        <v>654</v>
+        <v>656</v>
       </c>
     </row>
     <row r="105" ht="14" customHeight="1">
@@ -2825,16 +2825,16 @@
         <v>108</v>
       </c>
       <c r="B105" s="4">
-        <v>2089</v>
+        <v>2092</v>
       </c>
       <c r="C105" s="4">
         <v>48</v>
       </c>
       <c r="D105" s="4">
-        <v>4402</v>
+        <v>4406</v>
       </c>
       <c r="E105" s="4">
-        <v>6539</v>
+        <v>6546</v>
       </c>
     </row>
     <row r="106" ht="14" customHeight="1">
@@ -2842,16 +2842,16 @@
         <v>109</v>
       </c>
       <c r="B106" s="4">
-        <v>523974</v>
+        <v>524480</v>
       </c>
       <c r="C106" s="4">
-        <v>18855</v>
+        <v>18941</v>
       </c>
       <c r="D106" s="4">
-        <v>73878</v>
+        <v>73999</v>
       </c>
       <c r="E106" s="4">
-        <v>616707</v>
+        <v>617420</v>
       </c>
     </row>
     <row r="107" ht="14" customHeight="1">
@@ -2859,16 +2859,16 @@
         <v>110</v>
       </c>
       <c r="B107" s="4">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="C107" s="4">
         <v>550</v>
       </c>
       <c r="D107" s="4">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="E107" s="4">
-        <v>2699</v>
+        <v>2701</v>
       </c>
     </row>
     <row r="108" ht="14" customHeight="1">
@@ -2876,16 +2876,16 @@
         <v>111</v>
       </c>
       <c r="B108" s="4">
-        <v>57203</v>
+        <v>57293</v>
       </c>
       <c r="C108" s="4">
-        <v>3447</v>
+        <v>3454</v>
       </c>
       <c r="D108" s="4">
-        <v>33282</v>
+        <v>33337</v>
       </c>
       <c r="E108" s="4">
-        <v>93932</v>
+        <v>94084</v>
       </c>
     </row>
     <row r="109" ht="14" customHeight="1">
@@ -2893,16 +2893,16 @@
         <v>112</v>
       </c>
       <c r="B109" s="4">
-        <v>1005934</v>
+        <v>1009617</v>
       </c>
       <c r="C109" s="4">
-        <v>23986</v>
+        <v>24055</v>
       </c>
       <c r="D109" s="4">
-        <v>473484</v>
+        <v>475801</v>
       </c>
       <c r="E109" s="4">
-        <v>1503404</v>
+        <v>1509473</v>
       </c>
     </row>
     <row r="110" ht="14" customHeight="1">
@@ -2910,16 +2910,16 @@
         <v>113</v>
       </c>
       <c r="B110" s="4">
-        <v>45992</v>
+        <v>46024</v>
       </c>
       <c r="C110" s="4">
-        <v>1372</v>
+        <v>1374</v>
       </c>
       <c r="D110" s="4">
-        <v>22796</v>
+        <v>22815</v>
       </c>
       <c r="E110" s="4">
-        <v>70160</v>
+        <v>70213</v>
       </c>
     </row>
     <row r="111" ht="14" customHeight="1">
@@ -2927,16 +2927,16 @@
         <v>114</v>
       </c>
       <c r="B111" s="4">
-        <v>21659</v>
+        <v>21665</v>
       </c>
       <c r="C111" s="4">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D111" s="4">
-        <v>9739</v>
+        <v>9816</v>
       </c>
       <c r="E111" s="4">
-        <v>31686</v>
+        <v>31771</v>
       </c>
     </row>
     <row r="112" ht="14" customHeight="1">
@@ -2944,16 +2944,16 @@
         <v>115</v>
       </c>
       <c r="B112" s="4">
-        <v>62603</v>
+        <v>62656</v>
       </c>
       <c r="C112" s="4">
-        <v>3423</v>
+        <v>3427</v>
       </c>
       <c r="D112" s="4">
-        <v>50603</v>
+        <v>50631</v>
       </c>
       <c r="E112" s="4">
-        <v>116629</v>
+        <v>116714</v>
       </c>
     </row>
     <row r="113" ht="14" customHeight="1">
@@ -2961,16 +2961,16 @@
         <v>116</v>
       </c>
       <c r="B113" s="4">
-        <v>31175</v>
+        <v>31209</v>
       </c>
       <c r="C113" s="4">
         <v>2199</v>
       </c>
       <c r="D113" s="4">
-        <v>17256</v>
+        <v>17275</v>
       </c>
       <c r="E113" s="4">
-        <v>50630</v>
+        <v>50683</v>
       </c>
     </row>
     <row r="114" ht="14" customHeight="1">
@@ -2978,16 +2978,16 @@
         <v>117</v>
       </c>
       <c r="B114" s="4">
-        <v>22453</v>
+        <v>22468</v>
       </c>
       <c r="C114" s="4">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="D114" s="4">
-        <v>13854</v>
+        <v>14065</v>
       </c>
       <c r="E114" s="4">
-        <v>37090</v>
+        <v>37317</v>
       </c>
     </row>
     <row r="115" ht="14" customHeight="1">
@@ -2995,16 +2995,16 @@
         <v>118</v>
       </c>
       <c r="B115" s="4">
-        <v>24578</v>
+        <v>24590</v>
       </c>
       <c r="C115" s="4">
-        <v>988</v>
+        <v>992</v>
       </c>
       <c r="D115" s="4">
-        <v>27571</v>
+        <v>27681</v>
       </c>
       <c r="E115" s="4">
-        <v>53137</v>
+        <v>53263</v>
       </c>
     </row>
     <row r="116" ht="14" customHeight="1">
@@ -3012,16 +3012,16 @@
         <v>119</v>
       </c>
       <c r="B116" s="4">
-        <v>3705</v>
+        <v>3707</v>
       </c>
       <c r="C116" s="4">
         <v>55</v>
       </c>
       <c r="D116" s="4">
-        <v>1929</v>
+        <v>1930</v>
       </c>
       <c r="E116" s="4">
-        <v>5689</v>
+        <v>5692</v>
       </c>
     </row>
     <row r="117" ht="14" customHeight="1">
@@ -3029,16 +3029,16 @@
         <v>120</v>
       </c>
       <c r="B117" s="4">
-        <v>149318</v>
+        <v>149515</v>
       </c>
       <c r="C117" s="4">
-        <v>5435</v>
+        <v>5443</v>
       </c>
       <c r="D117" s="4">
-        <v>55933</v>
+        <v>56049</v>
       </c>
       <c r="E117" s="4">
-        <v>210686</v>
+        <v>211007</v>
       </c>
     </row>
     <row r="118" ht="14" customHeight="1">
@@ -3046,16 +3046,16 @@
         <v>121</v>
       </c>
       <c r="B118" s="4">
-        <v>15049</v>
+        <v>15059</v>
       </c>
       <c r="C118" s="4">
-        <v>1902</v>
+        <v>1904</v>
       </c>
       <c r="D118" s="4">
-        <v>11702</v>
+        <v>11712</v>
       </c>
       <c r="E118" s="4">
-        <v>28653</v>
+        <v>28675</v>
       </c>
     </row>
     <row r="119" ht="14" customHeight="1">
@@ -3063,16 +3063,16 @@
         <v>122</v>
       </c>
       <c r="B119" s="4">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C119" s="4">
         <v>28</v>
       </c>
       <c r="D119" s="4">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="E119" s="4">
-        <v>1691</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="120" ht="14" customHeight="1">
@@ -3080,16 +3080,16 @@
         <v>123</v>
       </c>
       <c r="B120" s="4">
-        <v>5753</v>
+        <v>5757</v>
       </c>
       <c r="C120" s="4">
         <v>307</v>
       </c>
       <c r="D120" s="4">
-        <v>2261</v>
+        <v>2263</v>
       </c>
       <c r="E120" s="4">
-        <v>8321</v>
+        <v>8327</v>
       </c>
     </row>
     <row r="121" ht="14" customHeight="1">
@@ -3097,16 +3097,16 @@
         <v>124</v>
       </c>
       <c r="B121" s="4">
-        <v>12387</v>
+        <v>12401</v>
       </c>
       <c r="C121" s="4">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="D121" s="4">
-        <v>6587</v>
+        <v>6590</v>
       </c>
       <c r="E121" s="4">
-        <v>19631</v>
+        <v>19649</v>
       </c>
     </row>
     <row r="122" ht="14" customHeight="1">
@@ -3114,16 +3114,16 @@
         <v>125</v>
       </c>
       <c r="B122" s="4">
-        <v>31697</v>
+        <v>31717</v>
       </c>
       <c r="C122" s="4">
-        <v>3220</v>
+        <v>3224</v>
       </c>
       <c r="D122" s="4">
-        <v>20339</v>
+        <v>20356</v>
       </c>
       <c r="E122" s="4">
-        <v>55256</v>
+        <v>55297</v>
       </c>
     </row>
     <row r="123" ht="14" customHeight="1">
@@ -3131,16 +3131,16 @@
         <v>126</v>
       </c>
       <c r="B123" s="4">
-        <v>2056</v>
+        <v>2057</v>
       </c>
       <c r="C123" s="4">
         <v>61</v>
       </c>
       <c r="D123" s="4">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E123" s="4">
-        <v>2528</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="124" ht="14" customHeight="1">
@@ -3148,16 +3148,16 @@
         <v>127</v>
       </c>
       <c r="B124" s="4">
-        <v>263283</v>
+        <v>263574</v>
       </c>
       <c r="C124" s="4">
-        <v>17230</v>
+        <v>17252</v>
       </c>
       <c r="D124" s="4">
-        <v>122243</v>
+        <v>122450</v>
       </c>
       <c r="E124" s="4">
-        <v>402756</v>
+        <v>403276</v>
       </c>
     </row>
     <row r="125" ht="14" customHeight="1">
@@ -3165,16 +3165,16 @@
         <v>128</v>
       </c>
       <c r="B125" s="4">
-        <v>15427</v>
+        <v>15429</v>
       </c>
       <c r="C125" s="4">
         <v>783</v>
       </c>
       <c r="D125" s="4">
-        <v>18179</v>
+        <v>18184</v>
       </c>
       <c r="E125" s="4">
-        <v>34389</v>
+        <v>34396</v>
       </c>
     </row>
     <row r="126" ht="14" customHeight="1">
@@ -3182,16 +3182,16 @@
         <v>129</v>
       </c>
       <c r="B126" s="4">
-        <v>94590</v>
+        <v>94771</v>
       </c>
       <c r="C126" s="4">
-        <v>11531</v>
+        <v>11539</v>
       </c>
       <c r="D126" s="4">
-        <v>41504</v>
+        <v>41536</v>
       </c>
       <c r="E126" s="4">
-        <v>147625</v>
+        <v>147846</v>
       </c>
     </row>
     <row r="127" ht="14" customHeight="1">
@@ -3199,16 +3199,16 @@
         <v>130</v>
       </c>
       <c r="B127" s="4">
-        <v>222641</v>
+        <v>222946</v>
       </c>
       <c r="C127" s="4">
-        <v>9682</v>
+        <v>9695</v>
       </c>
       <c r="D127" s="4">
-        <v>60212</v>
+        <v>60459</v>
       </c>
       <c r="E127" s="4">
-        <v>292535</v>
+        <v>293100</v>
       </c>
     </row>
     <row r="128" ht="14" customHeight="1">
@@ -3216,16 +3216,16 @@
         <v>131</v>
       </c>
       <c r="B128" s="4">
-        <v>12737</v>
+        <v>12835</v>
       </c>
       <c r="C128" s="4">
         <v>251</v>
       </c>
       <c r="D128" s="4">
-        <v>11456</v>
+        <v>11476</v>
       </c>
       <c r="E128" s="4">
-        <v>24444</v>
+        <v>24562</v>
       </c>
     </row>
     <row r="129" ht="14" customHeight="1">
@@ -3233,16 +3233,16 @@
         <v>132</v>
       </c>
       <c r="B129" s="4">
-        <v>23926</v>
+        <v>23932</v>
       </c>
       <c r="C129" s="4">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="D129" s="4">
-        <v>16309</v>
+        <v>16425</v>
       </c>
       <c r="E129" s="4">
-        <v>40841</v>
+        <v>40965</v>
       </c>
     </row>
     <row r="130" ht="14" customHeight="1">
@@ -3250,16 +3250,16 @@
         <v>133</v>
       </c>
       <c r="B130" s="4">
-        <v>200712</v>
+        <v>201080</v>
       </c>
       <c r="C130" s="4">
-        <v>7725</v>
+        <v>7734</v>
       </c>
       <c r="D130" s="4">
-        <v>63637</v>
+        <v>63788</v>
       </c>
       <c r="E130" s="4">
-        <v>272074</v>
+        <v>272602</v>
       </c>
     </row>
     <row r="131" ht="14" customHeight="1">
@@ -3267,16 +3267,16 @@
         <v>134</v>
       </c>
       <c r="B131" s="4">
-        <v>49630</v>
+        <v>49721</v>
       </c>
       <c r="C131" s="4">
-        <v>3283</v>
+        <v>3301</v>
       </c>
       <c r="D131" s="4">
-        <v>26368</v>
+        <v>26396</v>
       </c>
       <c r="E131" s="4">
-        <v>79281</v>
+        <v>79418</v>
       </c>
     </row>
     <row r="132" ht="14" customHeight="1">
@@ -3301,16 +3301,16 @@
         <v>136</v>
       </c>
       <c r="B133" s="4">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C133" s="4">
         <v>0</v>
       </c>
       <c r="D133" s="4">
-        <v>1999</v>
+        <v>2023</v>
       </c>
       <c r="E133" s="4">
-        <v>2334</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="134" ht="14" customHeight="1">
@@ -3318,16 +3318,16 @@
         <v>137</v>
       </c>
       <c r="B134" s="4">
-        <v>50565</v>
+        <v>50633</v>
       </c>
       <c r="C134" s="4">
-        <v>2417</v>
+        <v>2429</v>
       </c>
       <c r="D134" s="4">
-        <v>58595</v>
+        <v>58782</v>
       </c>
       <c r="E134" s="4">
-        <v>111577</v>
+        <v>111844</v>
       </c>
     </row>
     <row r="135" ht="14" customHeight="1">
@@ -3335,16 +3335,16 @@
         <v>138</v>
       </c>
       <c r="B135" s="4">
-        <v>2543</v>
+        <v>2548</v>
       </c>
       <c r="C135" s="4">
         <v>79</v>
       </c>
       <c r="D135" s="4">
-        <v>1810</v>
+        <v>1813</v>
       </c>
       <c r="E135" s="4">
-        <v>4432</v>
+        <v>4440</v>
       </c>
     </row>
     <row r="136" ht="14" customHeight="1">
@@ -3358,10 +3358,10 @@
         <v>9</v>
       </c>
       <c r="D136" s="4">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E136" s="4">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="137" ht="14" customHeight="1">
@@ -3369,16 +3369,16 @@
         <v>140</v>
       </c>
       <c r="B137" s="4">
-        <v>3728</v>
+        <v>3730</v>
       </c>
       <c r="C137" s="4">
         <v>66</v>
       </c>
       <c r="D137" s="4">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="E137" s="4">
-        <v>4702</v>
+        <v>4706</v>
       </c>
     </row>
     <row r="138" ht="14" customHeight="1">
@@ -3386,16 +3386,16 @@
         <v>141</v>
       </c>
       <c r="B138" s="4">
-        <v>45637</v>
+        <v>45675</v>
       </c>
       <c r="C138" s="4">
-        <v>5585</v>
+        <v>5590</v>
       </c>
       <c r="D138" s="4">
-        <v>21308</v>
+        <v>21328</v>
       </c>
       <c r="E138" s="4">
-        <v>72530</v>
+        <v>72593</v>
       </c>
     </row>
     <row r="139" ht="14" customHeight="1">
@@ -3403,16 +3403,16 @@
         <v>142</v>
       </c>
       <c r="B139" s="4">
-        <v>1340</v>
+        <v>1350</v>
       </c>
       <c r="C139" s="4">
         <v>68</v>
       </c>
       <c r="D139" s="4">
-        <v>7730</v>
+        <v>7776</v>
       </c>
       <c r="E139" s="4">
-        <v>9138</v>
+        <v>9194</v>
       </c>
     </row>
     <row r="140" ht="14" customHeight="1">
@@ -3420,16 +3420,16 @@
         <v>143</v>
       </c>
       <c r="B140" s="4">
-        <v>14529</v>
+        <v>14543</v>
       </c>
       <c r="C140" s="4">
         <v>331</v>
       </c>
       <c r="D140" s="4">
-        <v>7923</v>
+        <v>7934</v>
       </c>
       <c r="E140" s="4">
-        <v>22783</v>
+        <v>22808</v>
       </c>
     </row>
     <row r="141" ht="14" customHeight="1">
@@ -3437,16 +3437,16 @@
         <v>144</v>
       </c>
       <c r="B141" s="4">
-        <v>34031</v>
+        <v>34075</v>
       </c>
       <c r="C141" s="4">
-        <v>3119</v>
+        <v>3122</v>
       </c>
       <c r="D141" s="4">
-        <v>25696</v>
+        <v>25760</v>
       </c>
       <c r="E141" s="4">
-        <v>62846</v>
+        <v>62957</v>
       </c>
     </row>
     <row r="142" ht="14" customHeight="1">
@@ -3454,16 +3454,16 @@
         <v>145</v>
       </c>
       <c r="B142" s="4">
-        <v>10363</v>
+        <v>10385</v>
       </c>
       <c r="C142" s="4">
         <v>194</v>
       </c>
       <c r="D142" s="4">
-        <v>12901</v>
+        <v>12908</v>
       </c>
       <c r="E142" s="4">
-        <v>23458</v>
+        <v>23487</v>
       </c>
     </row>
     <row r="143" ht="14" customHeight="1">
@@ -3471,16 +3471,16 @@
         <v>146</v>
       </c>
       <c r="B143" s="4">
-        <v>33371</v>
+        <v>33391</v>
       </c>
       <c r="C143" s="4">
         <v>827</v>
       </c>
       <c r="D143" s="4">
-        <v>9351</v>
+        <v>9355</v>
       </c>
       <c r="E143" s="4">
-        <v>43549</v>
+        <v>43573</v>
       </c>
     </row>
     <row r="144" ht="14" customHeight="1">
@@ -3488,16 +3488,16 @@
         <v>147</v>
       </c>
       <c r="B144" s="4">
-        <v>20949</v>
+        <v>20964</v>
       </c>
       <c r="C144" s="4">
-        <v>1461</v>
+        <v>1467</v>
       </c>
       <c r="D144" s="4">
-        <v>19155</v>
+        <v>19165</v>
       </c>
       <c r="E144" s="4">
-        <v>41565</v>
+        <v>41596</v>
       </c>
     </row>
     <row r="145" ht="14" customHeight="1">
@@ -3505,16 +3505,16 @@
         <v>148</v>
       </c>
       <c r="B145" s="4">
-        <v>14722</v>
+        <v>14733</v>
       </c>
       <c r="C145" s="4">
         <v>528</v>
       </c>
       <c r="D145" s="4">
-        <v>8357</v>
+        <v>8362</v>
       </c>
       <c r="E145" s="4">
-        <v>23607</v>
+        <v>23623</v>
       </c>
     </row>
     <row r="146" ht="14" customHeight="1">
@@ -3522,16 +3522,16 @@
         <v>149</v>
       </c>
       <c r="B146" s="4">
-        <v>19037</v>
+        <v>19064</v>
       </c>
       <c r="C146" s="4">
         <v>914</v>
       </c>
       <c r="D146" s="4">
-        <v>8762</v>
+        <v>8797</v>
       </c>
       <c r="E146" s="4">
-        <v>28713</v>
+        <v>28775</v>
       </c>
     </row>
     <row r="147" ht="14" customHeight="1">
@@ -3539,16 +3539,16 @@
         <v>150</v>
       </c>
       <c r="B147" s="4">
-        <v>103446</v>
+        <v>103605</v>
       </c>
       <c r="C147" s="4">
-        <v>4872</v>
+        <v>4874</v>
       </c>
       <c r="D147" s="4">
-        <v>32269</v>
+        <v>32315</v>
       </c>
       <c r="E147" s="4">
-        <v>140587</v>
+        <v>140794</v>
       </c>
     </row>
     <row r="148" ht="14" customHeight="1">
@@ -3556,16 +3556,16 @@
         <v>151</v>
       </c>
       <c r="B148" s="4">
-        <v>42836</v>
+        <v>42841</v>
       </c>
       <c r="C148" s="4">
         <v>819</v>
       </c>
       <c r="D148" s="4">
-        <v>43938</v>
+        <v>43971</v>
       </c>
       <c r="E148" s="4">
-        <v>87593</v>
+        <v>87631</v>
       </c>
     </row>
     <row r="149" ht="14" customHeight="1">
@@ -3573,7 +3573,7 @@
         <v>152</v>
       </c>
       <c r="B149" s="4">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="C149" s="4">
         <v>330</v>
@@ -3582,7 +3582,7 @@
         <v>1301</v>
       </c>
       <c r="E149" s="4">
-        <v>2317</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="150" ht="14" customHeight="1">
@@ -3590,16 +3590,16 @@
         <v>153</v>
       </c>
       <c r="B150" s="4">
-        <v>10372</v>
+        <v>10381</v>
       </c>
       <c r="C150" s="4">
-        <v>1384</v>
+        <v>1386</v>
       </c>
       <c r="D150" s="4">
-        <v>9243</v>
+        <v>9247</v>
       </c>
       <c r="E150" s="4">
-        <v>20999</v>
+        <v>21014</v>
       </c>
     </row>
     <row r="151" ht="14" customHeight="1">
@@ -3607,16 +3607,16 @@
         <v>154</v>
       </c>
       <c r="B151" s="4">
-        <v>20607</v>
+        <v>20648</v>
       </c>
       <c r="C151" s="4">
         <v>746</v>
       </c>
       <c r="D151" s="4">
-        <v>6481</v>
+        <v>6487</v>
       </c>
       <c r="E151" s="4">
-        <v>27834</v>
+        <v>27881</v>
       </c>
     </row>
     <row r="152" ht="14" customHeight="1">
@@ -3630,10 +3630,10 @@
         <v>5</v>
       </c>
       <c r="D152" s="4">
-        <v>13318</v>
+        <v>13399</v>
       </c>
       <c r="E152" s="4">
-        <v>13764</v>
+        <v>13845</v>
       </c>
     </row>
     <row r="153" ht="14" customHeight="1">
@@ -3641,16 +3641,16 @@
         <v>156</v>
       </c>
       <c r="B153" s="4">
-        <v>388575</v>
+        <v>388760</v>
       </c>
       <c r="C153" s="4">
-        <v>13330</v>
+        <v>13375</v>
       </c>
       <c r="D153" s="4">
-        <v>213221</v>
+        <v>213781</v>
       </c>
       <c r="E153" s="4">
-        <v>615126</v>
+        <v>615916</v>
       </c>
     </row>
     <row r="154" ht="14" customHeight="1">
@@ -3658,16 +3658,16 @@
         <v>157</v>
       </c>
       <c r="B154" s="4">
-        <v>4924</v>
+        <v>4947</v>
       </c>
       <c r="C154" s="4">
         <v>200</v>
       </c>
       <c r="D154" s="4">
-        <v>4463</v>
+        <v>4465</v>
       </c>
       <c r="E154" s="4">
-        <v>9587</v>
+        <v>9612</v>
       </c>
     </row>
     <row r="155" ht="14" customHeight="1">
@@ -3675,16 +3675,16 @@
         <v>158</v>
       </c>
       <c r="B155" s="4">
-        <v>21050</v>
+        <v>21064</v>
       </c>
       <c r="C155" s="4">
         <v>428</v>
       </c>
       <c r="D155" s="4">
-        <v>7531</v>
+        <v>7560</v>
       </c>
       <c r="E155" s="4">
-        <v>29009</v>
+        <v>29052</v>
       </c>
     </row>
     <row r="156" ht="14" customHeight="1">
@@ -3692,16 +3692,16 @@
         <v>159</v>
       </c>
       <c r="B156" s="4">
-        <v>4576</v>
+        <v>4582</v>
       </c>
       <c r="C156" s="4">
         <v>887</v>
       </c>
       <c r="D156" s="4">
-        <v>4390</v>
+        <v>4401</v>
       </c>
       <c r="E156" s="4">
-        <v>9853</v>
+        <v>9870</v>
       </c>
     </row>
     <row r="157" ht="14" customHeight="1">
@@ -3709,16 +3709,16 @@
         <v>160</v>
       </c>
       <c r="B157" s="4">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="C157" s="4">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D157" s="4">
-        <v>1623</v>
+        <v>1626</v>
       </c>
       <c r="E157" s="4">
-        <v>3924</v>
+        <v>3930</v>
       </c>
     </row>
     <row r="158" ht="14" customHeight="1">
@@ -3726,16 +3726,16 @@
         <v>161</v>
       </c>
       <c r="B158" s="4">
-        <v>2751</v>
+        <v>2755</v>
       </c>
       <c r="C158" s="4">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D158" s="4">
-        <v>2456</v>
+        <v>2460</v>
       </c>
       <c r="E158" s="4">
-        <v>5335</v>
+        <v>5347</v>
       </c>
     </row>
     <row r="159" ht="14" customHeight="1">
@@ -3743,16 +3743,16 @@
         <v>162</v>
       </c>
       <c r="B159" s="4">
-        <v>54092</v>
+        <v>54180</v>
       </c>
       <c r="C159" s="4">
-        <v>2038</v>
+        <v>2042</v>
       </c>
       <c r="D159" s="4">
-        <v>8938</v>
+        <v>8952</v>
       </c>
       <c r="E159" s="4">
-        <v>65068</v>
+        <v>65174</v>
       </c>
     </row>
     <row r="160" ht="14" customHeight="1">
@@ -3760,16 +3760,16 @@
         <v>163</v>
       </c>
       <c r="B160" s="4">
-        <v>109809</v>
+        <v>109874</v>
       </c>
       <c r="C160" s="4">
         <v>546</v>
       </c>
       <c r="D160" s="4">
-        <v>32335</v>
+        <v>32624</v>
       </c>
       <c r="E160" s="4">
-        <v>142690</v>
+        <v>143044</v>
       </c>
     </row>
     <row r="161" ht="14" customHeight="1">
@@ -3777,16 +3777,16 @@
         <v>164</v>
       </c>
       <c r="B161" s="4">
-        <v>4062</v>
+        <v>4065</v>
       </c>
       <c r="C161" s="4">
         <v>97</v>
       </c>
       <c r="D161" s="4">
-        <v>5022</v>
+        <v>5035</v>
       </c>
       <c r="E161" s="4">
-        <v>9181</v>
+        <v>9197</v>
       </c>
     </row>
     <row r="162" ht="14" customHeight="1">
@@ -3794,16 +3794,16 @@
         <v>165</v>
       </c>
       <c r="B162" s="4">
-        <v>462952</v>
+        <v>463315</v>
       </c>
       <c r="C162" s="4">
-        <v>14173</v>
+        <v>14222</v>
       </c>
       <c r="D162" s="4">
-        <v>180068</v>
+        <v>180460</v>
       </c>
       <c r="E162" s="4">
-        <v>657193</v>
+        <v>657997</v>
       </c>
     </row>
     <row r="163" ht="14" customHeight="1">
@@ -3811,7 +3811,7 @@
         <v>166</v>
       </c>
       <c r="B163" s="4">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="C163" s="4">
         <v>65</v>
@@ -3820,7 +3820,7 @@
         <v>181</v>
       </c>
       <c r="E163" s="4">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="164" ht="14" customHeight="1">
@@ -3828,16 +3828,16 @@
         <v>167</v>
       </c>
       <c r="B164" s="4">
-        <v>57714</v>
+        <v>57802</v>
       </c>
       <c r="C164" s="4">
         <v>1864</v>
       </c>
       <c r="D164" s="4">
-        <v>18259</v>
+        <v>18319</v>
       </c>
       <c r="E164" s="4">
-        <v>77837</v>
+        <v>77985</v>
       </c>
     </row>
     <row r="165" ht="14" customHeight="1">
@@ -3845,16 +3845,16 @@
         <v>168</v>
       </c>
       <c r="B165" s="4">
-        <v>2567</v>
+        <v>2570</v>
       </c>
       <c r="C165" s="4">
         <v>29</v>
       </c>
       <c r="D165" s="4">
-        <v>2920</v>
+        <v>2930</v>
       </c>
       <c r="E165" s="4">
-        <v>5516</v>
+        <v>5529</v>
       </c>
     </row>
     <row r="166" ht="14" customHeight="1">
@@ -3862,16 +3862,16 @@
         <v>169</v>
       </c>
       <c r="B166" s="4">
-        <v>91632</v>
+        <v>91779</v>
       </c>
       <c r="C166" s="4">
-        <v>12704</v>
+        <v>12719</v>
       </c>
       <c r="D166" s="4">
-        <v>99434</v>
+        <v>99827</v>
       </c>
       <c r="E166" s="4">
-        <v>203770</v>
+        <v>204325</v>
       </c>
     </row>
     <row r="167" ht="14" customHeight="1">
@@ -3879,16 +3879,16 @@
         <v>170</v>
       </c>
       <c r="B167" s="4">
-        <v>28475</v>
+        <v>28501</v>
       </c>
       <c r="C167" s="4">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="D167" s="4">
-        <v>16219</v>
+        <v>16249</v>
       </c>
       <c r="E167" s="4">
-        <v>46133</v>
+        <v>46190</v>
       </c>
     </row>
     <row r="168" ht="14" customHeight="1">
@@ -3896,16 +3896,16 @@
         <v>171</v>
       </c>
       <c r="B168" s="4">
-        <v>10238</v>
+        <v>10243</v>
       </c>
       <c r="C168" s="4">
         <v>147</v>
       </c>
       <c r="D168" s="4">
-        <v>3095</v>
+        <v>3101</v>
       </c>
       <c r="E168" s="4">
-        <v>13480</v>
+        <v>13491</v>
       </c>
     </row>
     <row r="169" ht="14" customHeight="1">
@@ -3913,16 +3913,16 @@
         <v>172</v>
       </c>
       <c r="B169" s="4">
-        <v>9170</v>
+        <v>9174</v>
       </c>
       <c r="C169" s="4">
         <v>89</v>
       </c>
       <c r="D169" s="4">
-        <v>8494</v>
+        <v>8531</v>
       </c>
       <c r="E169" s="4">
-        <v>17753</v>
+        <v>17794</v>
       </c>
     </row>
     <row r="170" ht="14" customHeight="1">
@@ -3930,16 +3930,16 @@
         <v>173</v>
       </c>
       <c r="B170" s="4">
-        <v>20998</v>
+        <v>21014</v>
       </c>
       <c r="C170" s="4">
         <v>1387</v>
       </c>
       <c r="D170" s="4">
-        <v>12357</v>
+        <v>12362</v>
       </c>
       <c r="E170" s="4">
-        <v>34742</v>
+        <v>34763</v>
       </c>
     </row>
     <row r="171" ht="14" customHeight="1">
@@ -3947,16 +3947,16 @@
         <v>174</v>
       </c>
       <c r="B171" s="4">
-        <v>808709</v>
+        <v>810029</v>
       </c>
       <c r="C171" s="4">
-        <v>50983</v>
+        <v>51052</v>
       </c>
       <c r="D171" s="4">
-        <v>185371</v>
+        <v>185942</v>
       </c>
       <c r="E171" s="4">
-        <v>1045063</v>
+        <v>1047023</v>
       </c>
     </row>
     <row r="172" ht="14" customHeight="1">
@@ -3964,16 +3964,16 @@
         <v>175</v>
       </c>
       <c r="B172" s="4">
-        <v>12603</v>
+        <v>12626</v>
       </c>
       <c r="C172" s="4">
         <v>1264</v>
       </c>
       <c r="D172" s="4">
-        <v>8646</v>
+        <v>8692</v>
       </c>
       <c r="E172" s="4">
-        <v>22513</v>
+        <v>22582</v>
       </c>
     </row>
     <row r="173" ht="14" customHeight="1">
@@ -3981,16 +3981,16 @@
         <v>176</v>
       </c>
       <c r="B173" s="4">
-        <v>10729</v>
+        <v>10747</v>
       </c>
       <c r="C173" s="4">
         <v>843</v>
       </c>
       <c r="D173" s="4">
-        <v>9553</v>
+        <v>9556</v>
       </c>
       <c r="E173" s="4">
-        <v>21125</v>
+        <v>21146</v>
       </c>
     </row>
     <row r="174" ht="14" customHeight="1">
@@ -4004,10 +4004,10 @@
         <v>20</v>
       </c>
       <c r="D174" s="4">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="E174" s="4">
-        <v>1409</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="175" ht="14" customHeight="1">
@@ -4015,16 +4015,16 @@
         <v>178</v>
       </c>
       <c r="B175" s="4">
-        <v>73133</v>
+        <v>73200</v>
       </c>
       <c r="C175" s="4">
-        <v>4721</v>
+        <v>4725</v>
       </c>
       <c r="D175" s="4">
-        <v>25973</v>
+        <v>26004</v>
       </c>
       <c r="E175" s="4">
-        <v>103827</v>
+        <v>103929</v>
       </c>
     </row>
     <row r="176" ht="14" customHeight="1">
@@ -4032,16 +4032,16 @@
         <v>179</v>
       </c>
       <c r="B176" s="4">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="C176" s="4">
         <v>2177</v>
       </c>
       <c r="D176" s="4">
-        <v>41432</v>
+        <v>41504</v>
       </c>
       <c r="E176" s="4">
-        <v>88987</v>
+        <v>89100</v>
       </c>
     </row>
     <row r="177" ht="14" customHeight="1">
@@ -4049,16 +4049,16 @@
         <v>180</v>
       </c>
       <c r="B177" s="4">
-        <v>8044</v>
+        <v>8053</v>
       </c>
       <c r="C177" s="4">
-        <v>974</v>
+        <v>978</v>
       </c>
       <c r="D177" s="4">
-        <v>6651</v>
+        <v>6653</v>
       </c>
       <c r="E177" s="4">
-        <v>15669</v>
+        <v>15684</v>
       </c>
     </row>
     <row r="178" ht="14" customHeight="1">
@@ -4066,16 +4066,16 @@
         <v>181</v>
       </c>
       <c r="B178" s="4">
-        <v>10975</v>
+        <v>10981</v>
       </c>
       <c r="C178" s="4">
         <v>240</v>
       </c>
       <c r="D178" s="4">
-        <v>9827</v>
+        <v>9835</v>
       </c>
       <c r="E178" s="4">
-        <v>21042</v>
+        <v>21056</v>
       </c>
     </row>
     <row r="179" ht="14" customHeight="1">
@@ -4083,16 +4083,16 @@
         <v>182</v>
       </c>
       <c r="B179" s="4">
-        <v>417820</v>
+        <v>418293</v>
       </c>
       <c r="C179" s="4">
-        <v>54595</v>
+        <v>54642</v>
       </c>
       <c r="D179" s="4">
-        <v>213479</v>
+        <v>214163</v>
       </c>
       <c r="E179" s="4">
-        <v>685894</v>
+        <v>687098</v>
       </c>
     </row>
     <row r="180" ht="14" customHeight="1">
@@ -4100,16 +4100,16 @@
         <v>183</v>
       </c>
       <c r="B180" s="4">
-        <v>2112</v>
+        <v>2121</v>
       </c>
       <c r="C180" s="4">
         <v>470</v>
       </c>
       <c r="D180" s="4">
-        <v>1785</v>
+        <v>1787</v>
       </c>
       <c r="E180" s="4">
-        <v>4367</v>
+        <v>4378</v>
       </c>
     </row>
     <row r="181" ht="14" customHeight="1">
@@ -4117,16 +4117,16 @@
         <v>184</v>
       </c>
       <c r="B181" s="4">
-        <v>1318</v>
+        <v>1320</v>
       </c>
       <c r="C181" s="4">
         <v>431</v>
       </c>
       <c r="D181" s="4">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="E181" s="4">
-        <v>3170</v>
+        <v>3173</v>
       </c>
     </row>
     <row r="182" ht="14" customHeight="1">
@@ -4134,16 +4134,16 @@
         <v>185</v>
       </c>
       <c r="B182" s="4">
-        <v>62161</v>
+        <v>62249</v>
       </c>
       <c r="C182" s="4">
-        <v>7461</v>
+        <v>7466</v>
       </c>
       <c r="D182" s="4">
-        <v>38311</v>
+        <v>38453</v>
       </c>
       <c r="E182" s="4">
-        <v>107933</v>
+        <v>108168</v>
       </c>
     </row>
     <row r="183" ht="14" customHeight="1">
@@ -4151,16 +4151,16 @@
         <v>186</v>
       </c>
       <c r="B183" s="4">
-        <v>29085</v>
+        <v>29106</v>
       </c>
       <c r="C183" s="4">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="D183" s="4">
-        <v>14675</v>
+        <v>14677</v>
       </c>
       <c r="E183" s="4">
-        <v>44917</v>
+        <v>44942</v>
       </c>
     </row>
     <row r="184" ht="14" customHeight="1">
@@ -4168,16 +4168,16 @@
         <v>187</v>
       </c>
       <c r="B184" s="4">
-        <v>16732</v>
+        <v>16745</v>
       </c>
       <c r="C184" s="4">
         <v>1374</v>
       </c>
       <c r="D184" s="4">
-        <v>12371</v>
+        <v>12403</v>
       </c>
       <c r="E184" s="4">
-        <v>30477</v>
+        <v>30522</v>
       </c>
     </row>
     <row r="185" ht="14" customHeight="1">
@@ -4185,16 +4185,16 @@
         <v>188</v>
       </c>
       <c r="B185" s="4">
-        <v>155812</v>
+        <v>156035</v>
       </c>
       <c r="C185" s="4">
-        <v>8367</v>
+        <v>8377</v>
       </c>
       <c r="D185" s="4">
-        <v>48317</v>
+        <v>48369</v>
       </c>
       <c r="E185" s="4">
-        <v>212496</v>
+        <v>212781</v>
       </c>
     </row>
     <row r="186" ht="14" customHeight="1">
@@ -4202,16 +4202,16 @@
         <v>189</v>
       </c>
       <c r="B186" s="4">
-        <v>3796</v>
+        <v>3804</v>
       </c>
       <c r="C186" s="4">
         <v>387</v>
       </c>
       <c r="D186" s="4">
-        <v>4648</v>
+        <v>4651</v>
       </c>
       <c r="E186" s="4">
-        <v>8831</v>
+        <v>8842</v>
       </c>
     </row>
     <row r="187" ht="14" customHeight="1">
@@ -4219,16 +4219,16 @@
         <v>190</v>
       </c>
       <c r="B187" s="4">
-        <v>15429</v>
+        <v>15435</v>
       </c>
       <c r="C187" s="4">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D187" s="4">
-        <v>6254</v>
+        <v>6272</v>
       </c>
       <c r="E187" s="4">
-        <v>21863</v>
+        <v>21888</v>
       </c>
     </row>
     <row r="188" ht="14" customHeight="1">
@@ -4236,16 +4236,16 @@
         <v>191</v>
       </c>
       <c r="B188" s="4">
-        <v>63604</v>
+        <v>63707</v>
       </c>
       <c r="C188" s="4">
-        <v>3080</v>
+        <v>3082</v>
       </c>
       <c r="D188" s="4">
-        <v>26443</v>
+        <v>26498</v>
       </c>
       <c r="E188" s="4">
-        <v>93127</v>
+        <v>93287</v>
       </c>
     </row>
     <row r="189" ht="14" customHeight="1">
@@ -4253,16 +4253,16 @@
         <v>192</v>
       </c>
       <c r="B189" s="4">
-        <v>128283</v>
+        <v>128369</v>
       </c>
       <c r="C189" s="4">
-        <v>10429</v>
+        <v>10435</v>
       </c>
       <c r="D189" s="4">
-        <v>57374</v>
+        <v>57755</v>
       </c>
       <c r="E189" s="4">
-        <v>196086</v>
+        <v>196559</v>
       </c>
     </row>
     <row r="190" ht="14" customHeight="1">
@@ -4270,16 +4270,16 @@
         <v>193</v>
       </c>
       <c r="B190" s="4">
-        <v>8201</v>
+        <v>8208</v>
       </c>
       <c r="C190" s="4">
         <v>65</v>
       </c>
       <c r="D190" s="4">
-        <v>2449</v>
+        <v>2450</v>
       </c>
       <c r="E190" s="4">
-        <v>10715</v>
+        <v>10723</v>
       </c>
     </row>
     <row r="191" ht="14" customHeight="1">
@@ -4287,16 +4287,16 @@
         <v>194</v>
       </c>
       <c r="B191" s="4">
-        <v>6643</v>
+        <v>6655</v>
       </c>
       <c r="C191" s="4">
         <v>506</v>
       </c>
       <c r="D191" s="4">
-        <v>4145</v>
+        <v>4154</v>
       </c>
       <c r="E191" s="4">
-        <v>11294</v>
+        <v>11315</v>
       </c>
     </row>
     <row r="192" ht="14" customHeight="1">
@@ -4304,16 +4304,16 @@
         <v>195</v>
       </c>
       <c r="B192" s="4">
-        <v>97420</v>
+        <v>97489</v>
       </c>
       <c r="C192" s="4">
-        <v>21301</v>
+        <v>21310</v>
       </c>
       <c r="D192" s="4">
-        <v>50211</v>
+        <v>50415</v>
       </c>
       <c r="E192" s="4">
-        <v>168932</v>
+        <v>169214</v>
       </c>
     </row>
     <row r="193" ht="14" customHeight="1">
@@ -4327,10 +4327,10 @@
         <v>49</v>
       </c>
       <c r="D193" s="4">
-        <v>1521</v>
+        <v>1524</v>
       </c>
       <c r="E193" s="4">
-        <v>2908</v>
+        <v>2911</v>
       </c>
     </row>
     <row r="194" ht="14" customHeight="1">
@@ -4338,16 +4338,16 @@
         <v>197</v>
       </c>
       <c r="B194" s="4">
-        <v>3075</v>
+        <v>3076</v>
       </c>
       <c r="C194" s="4">
         <v>138</v>
       </c>
       <c r="D194" s="4">
-        <v>1949</v>
+        <v>1950</v>
       </c>
       <c r="E194" s="4">
-        <v>5162</v>
+        <v>5164</v>
       </c>
     </row>
     <row r="195" ht="14" customHeight="1">
@@ -4355,16 +4355,16 @@
         <v>198</v>
       </c>
       <c r="B195" s="4">
-        <v>9167</v>
+        <v>9178</v>
       </c>
       <c r="C195" s="4">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D195" s="4">
-        <v>10959</v>
+        <v>10982</v>
       </c>
       <c r="E195" s="4">
-        <v>20909</v>
+        <v>20945</v>
       </c>
     </row>
     <row r="196" ht="14" customHeight="1">
@@ -4372,16 +4372,16 @@
         <v>199</v>
       </c>
       <c r="B196" s="4">
-        <v>14553</v>
+        <v>14572</v>
       </c>
       <c r="C196" s="4">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="D196" s="4">
-        <v>101943</v>
+        <v>102011</v>
       </c>
       <c r="E196" s="4">
-        <v>117060</v>
+        <v>117149</v>
       </c>
     </row>
     <row r="197" ht="14" customHeight="1">
@@ -4389,16 +4389,16 @@
         <v>200</v>
       </c>
       <c r="B197" s="4">
-        <v>6588</v>
+        <v>6591</v>
       </c>
       <c r="C197" s="4">
         <v>558</v>
       </c>
       <c r="D197" s="4">
-        <v>10350</v>
+        <v>10352</v>
       </c>
       <c r="E197" s="4">
-        <v>17496</v>
+        <v>17501</v>
       </c>
     </row>
     <row r="198" ht="14" customHeight="1">
@@ -4412,10 +4412,10 @@
         <v>128</v>
       </c>
       <c r="D198" s="4">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E198" s="4">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="199" ht="14" customHeight="1">
@@ -4423,16 +4423,16 @@
         <v>202</v>
       </c>
       <c r="B199" s="4">
-        <v>21585</v>
+        <v>21611</v>
       </c>
       <c r="C199" s="4">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="D199" s="4">
-        <v>15505</v>
+        <v>15635</v>
       </c>
       <c r="E199" s="4">
-        <v>37683</v>
+        <v>37843</v>
       </c>
     </row>
     <row r="200" ht="14" customHeight="1">
@@ -4440,16 +4440,16 @@
         <v>203</v>
       </c>
       <c r="B200" s="4">
-        <v>127437</v>
+        <v>127563</v>
       </c>
       <c r="C200" s="4">
-        <v>8671</v>
+        <v>8701</v>
       </c>
       <c r="D200" s="4">
-        <v>26061</v>
+        <v>26171</v>
       </c>
       <c r="E200" s="4">
-        <v>162169</v>
+        <v>162435</v>
       </c>
     </row>
     <row r="201" ht="14" customHeight="1">
@@ -4457,16 +4457,16 @@
         <v>204</v>
       </c>
       <c r="B201" s="4">
-        <v>8645</v>
+        <v>8647</v>
       </c>
       <c r="C201" s="4">
         <v>255</v>
       </c>
       <c r="D201" s="4">
-        <v>10075</v>
+        <v>10086</v>
       </c>
       <c r="E201" s="4">
-        <v>18975</v>
+        <v>18988</v>
       </c>
     </row>
     <row r="202" ht="14" customHeight="1">
@@ -4474,16 +4474,16 @@
         <v>205</v>
       </c>
       <c r="B202" s="4">
-        <v>39061</v>
+        <v>39081</v>
       </c>
       <c r="C202" s="4">
-        <v>2582</v>
+        <v>2584</v>
       </c>
       <c r="D202" s="4">
-        <v>12765</v>
+        <v>12828</v>
       </c>
       <c r="E202" s="4">
-        <v>54408</v>
+        <v>54493</v>
       </c>
     </row>
     <row r="203" ht="14" customHeight="1">
@@ -4491,16 +4491,16 @@
         <v>206</v>
       </c>
       <c r="B203" s="4">
-        <v>12284</v>
+        <v>12286</v>
       </c>
       <c r="C203" s="4">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="D203" s="4">
-        <v>5511</v>
+        <v>5516</v>
       </c>
       <c r="E203" s="4">
-        <v>18587</v>
+        <v>18596</v>
       </c>
     </row>
     <row r="204" ht="14" customHeight="1">
@@ -4508,16 +4508,16 @@
         <v>207</v>
       </c>
       <c r="B204" s="4">
-        <v>11747</v>
+        <v>11771</v>
       </c>
       <c r="C204" s="4">
         <v>306</v>
       </c>
       <c r="D204" s="4">
-        <v>11010</v>
+        <v>11077</v>
       </c>
       <c r="E204" s="4">
-        <v>23063</v>
+        <v>23154</v>
       </c>
     </row>
     <row r="205" ht="14" customHeight="1">
@@ -4525,16 +4525,16 @@
         <v>208</v>
       </c>
       <c r="B205" s="4">
-        <v>35929</v>
+        <v>35981</v>
       </c>
       <c r="C205" s="4">
         <v>2556</v>
       </c>
       <c r="D205" s="4">
-        <v>12182</v>
+        <v>12197</v>
       </c>
       <c r="E205" s="4">
-        <v>50667</v>
+        <v>50734</v>
       </c>
     </row>
     <row r="206" ht="14" customHeight="1">
@@ -4542,16 +4542,16 @@
         <v>209</v>
       </c>
       <c r="B206" s="4">
-        <v>64648</v>
+        <v>64766</v>
       </c>
       <c r="C206" s="4">
-        <v>10277</v>
+        <v>10279</v>
       </c>
       <c r="D206" s="4">
-        <v>53426</v>
+        <v>53591</v>
       </c>
       <c r="E206" s="4">
-        <v>128351</v>
+        <v>128636</v>
       </c>
     </row>
     <row r="207" ht="14" customHeight="1">
@@ -4559,16 +4559,16 @@
         <v>210</v>
       </c>
       <c r="B207" s="4">
-        <v>5923</v>
+        <v>5926</v>
       </c>
       <c r="C207" s="4">
         <v>146</v>
       </c>
       <c r="D207" s="4">
-        <v>4841</v>
+        <v>4852</v>
       </c>
       <c r="E207" s="4">
-        <v>10910</v>
+        <v>10924</v>
       </c>
     </row>
     <row r="208" ht="14" customHeight="1">
@@ -4582,10 +4582,10 @@
         <v>25</v>
       </c>
       <c r="D208" s="4">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="E208" s="4">
-        <v>2482</v>
+        <v>2483</v>
       </c>
     </row>
     <row r="209" ht="14" customHeight="1">
@@ -4593,16 +4593,16 @@
         <v>212</v>
       </c>
       <c r="B209" s="4">
-        <v>32351</v>
+        <v>32375</v>
       </c>
       <c r="C209" s="4">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D209" s="4">
-        <v>6308</v>
+        <v>6317</v>
       </c>
       <c r="E209" s="4">
-        <v>39020</v>
+        <v>39057</v>
       </c>
     </row>
     <row r="210" ht="14" customHeight="1">
@@ -4610,16 +4610,16 @@
         <v>213</v>
       </c>
       <c r="B210" s="4">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="C210" s="4">
         <v>104</v>
       </c>
       <c r="D210" s="4">
-        <v>1573</v>
+        <v>1581</v>
       </c>
       <c r="E210" s="4">
-        <v>2842</v>
+        <v>2851</v>
       </c>
     </row>
     <row r="211" ht="14" customHeight="1">
@@ -4627,16 +4627,16 @@
         <v>214</v>
       </c>
       <c r="B211" s="4">
-        <v>24724</v>
+        <v>24753</v>
       </c>
       <c r="C211" s="4">
         <v>1527</v>
       </c>
       <c r="D211" s="4">
-        <v>12605</v>
+        <v>12614</v>
       </c>
       <c r="E211" s="4">
-        <v>38856</v>
+        <v>38894</v>
       </c>
     </row>
     <row r="212" ht="14" customHeight="1">
@@ -4647,13 +4647,13 @@
         <v>389</v>
       </c>
       <c r="C212" s="4">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D212" s="4">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E212" s="4">
-        <v>860</v>
+        <v>864</v>
       </c>
     </row>
     <row r="213" ht="14" customHeight="1">
@@ -4661,16 +4661,16 @@
         <v>216</v>
       </c>
       <c r="B213" s="4">
-        <v>332096</v>
+        <v>332303</v>
       </c>
       <c r="C213" s="4">
-        <v>16644</v>
+        <v>16713</v>
       </c>
       <c r="D213" s="4">
-        <v>122667</v>
+        <v>123142</v>
       </c>
       <c r="E213" s="4">
-        <v>471407</v>
+        <v>472158</v>
       </c>
     </row>
     <row r="214" ht="14" customHeight="1">
@@ -4678,16 +4678,16 @@
         <v>217</v>
       </c>
       <c r="B214" s="4">
-        <v>10361</v>
+        <v>10372</v>
       </c>
       <c r="C214" s="4">
         <v>462</v>
       </c>
       <c r="D214" s="4">
-        <v>9217</v>
+        <v>9221</v>
       </c>
       <c r="E214" s="4">
-        <v>20040</v>
+        <v>20055</v>
       </c>
     </row>
     <row r="215" ht="14" customHeight="1">
@@ -4695,16 +4695,16 @@
         <v>218</v>
       </c>
       <c r="B215" s="4">
-        <v>95415</v>
+        <v>95914</v>
       </c>
       <c r="C215" s="4">
         <v>961</v>
       </c>
       <c r="D215" s="4">
-        <v>41818</v>
+        <v>42071</v>
       </c>
       <c r="E215" s="4">
-        <v>138194</v>
+        <v>138946</v>
       </c>
     </row>
     <row r="216" ht="14" customHeight="1">
@@ -4718,10 +4718,10 @@
         <v>179</v>
       </c>
       <c r="D216" s="4">
-        <v>8189</v>
+        <v>8233</v>
       </c>
       <c r="E216" s="4">
-        <v>15075</v>
+        <v>15119</v>
       </c>
     </row>
     <row r="217" ht="14" customHeight="1">
@@ -4735,10 +4735,10 @@
         <v>27</v>
       </c>
       <c r="D217" s="4">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="E217" s="4">
-        <v>1964</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="218" ht="14" customHeight="1">
@@ -4752,10 +4752,10 @@
         <v>10</v>
       </c>
       <c r="D218" s="4">
-        <v>2229</v>
+        <v>2235</v>
       </c>
       <c r="E218" s="4">
-        <v>2457</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="219" ht="14" customHeight="1">
@@ -4769,10 +4769,10 @@
         <v>50</v>
       </c>
       <c r="D219" s="4">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="E219" s="4">
-        <v>3407</v>
+        <v>3408</v>
       </c>
     </row>
     <row r="220" ht="14" customHeight="1">
@@ -4780,16 +4780,16 @@
         <v>223</v>
       </c>
       <c r="B220" s="4">
-        <v>8969</v>
+        <v>8972</v>
       </c>
       <c r="C220" s="4">
         <v>472</v>
       </c>
       <c r="D220" s="4">
-        <v>2680</v>
+        <v>2687</v>
       </c>
       <c r="E220" s="4">
-        <v>12121</v>
+        <v>12131</v>
       </c>
     </row>
     <row r="221" ht="14" customHeight="1">
@@ -4797,16 +4797,16 @@
         <v>224</v>
       </c>
       <c r="B221" s="4">
-        <v>3210601</v>
+        <v>3214304</v>
       </c>
       <c r="C221" s="4">
-        <v>122938</v>
+        <v>123132</v>
       </c>
       <c r="D221" s="4">
-        <v>732982</v>
+        <v>735295</v>
       </c>
       <c r="E221" s="4">
-        <v>4066521</v>
+        <v>4072731</v>
       </c>
     </row>
     <row r="222" ht="14" customHeight="1">
@@ -4814,16 +4814,16 @@
         <v>225</v>
       </c>
       <c r="B222" s="4">
-        <v>127356</v>
+        <v>127499</v>
       </c>
       <c r="C222" s="4">
-        <v>4931</v>
+        <v>4936</v>
       </c>
       <c r="D222" s="4">
-        <v>176182</v>
+        <v>176529</v>
       </c>
       <c r="E222" s="4">
-        <v>308469</v>
+        <v>308964</v>
       </c>
     </row>
     <row r="223" ht="14" customHeight="1">
@@ -4848,16 +4848,16 @@
         <v>227</v>
       </c>
       <c r="B224" s="4">
-        <v>6316</v>
+        <v>6318</v>
       </c>
       <c r="C224" s="4">
         <v>145</v>
       </c>
       <c r="D224" s="4">
-        <v>5002</v>
+        <v>5004</v>
       </c>
       <c r="E224" s="4">
-        <v>11463</v>
+        <v>11467</v>
       </c>
     </row>
     <row r="225" ht="14" customHeight="1">
@@ -4865,7 +4865,7 @@
         <v>228</v>
       </c>
       <c r="B225" s="4">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C225" s="4">
         <v>58</v>
@@ -4874,7 +4874,7 @@
         <v>1085</v>
       </c>
       <c r="E225" s="4">
-        <v>1662</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="226" ht="14" customHeight="1">
@@ -4882,16 +4882,16 @@
         <v>229</v>
       </c>
       <c r="B226" s="4">
-        <v>38067</v>
+        <v>38104</v>
       </c>
       <c r="C226" s="4">
         <v>1537</v>
       </c>
       <c r="D226" s="4">
-        <v>12187</v>
+        <v>12204</v>
       </c>
       <c r="E226" s="4">
-        <v>51791</v>
+        <v>51845</v>
       </c>
     </row>
     <row r="227" ht="14" customHeight="1">
@@ -4899,16 +4899,16 @@
         <v>230</v>
       </c>
       <c r="B227" s="4">
-        <v>109129</v>
+        <v>109191</v>
       </c>
       <c r="C227" s="4">
         <v>3428</v>
       </c>
       <c r="D227" s="4">
-        <v>165412</v>
+        <v>165643</v>
       </c>
       <c r="E227" s="4">
-        <v>277969</v>
+        <v>278262</v>
       </c>
     </row>
     <row r="228" ht="14" customHeight="1">
@@ -4916,16 +4916,16 @@
         <v>231</v>
       </c>
       <c r="B228" s="4">
-        <v>2172332</v>
+        <v>2174768</v>
       </c>
       <c r="C228" s="4">
-        <v>97560</v>
+        <v>98200</v>
       </c>
       <c r="D228" s="4">
-        <v>551379</v>
+        <v>552257</v>
       </c>
       <c r="E228" s="4">
-        <v>2821271</v>
+        <v>2825225</v>
       </c>
     </row>
     <row r="229" ht="14" customHeight="1">
@@ -4933,16 +4933,16 @@
         <v>232</v>
       </c>
       <c r="B229" s="4">
-        <v>19858</v>
+        <v>19879</v>
       </c>
       <c r="C229" s="4">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="D229" s="4">
-        <v>9828</v>
+        <v>9846</v>
       </c>
       <c r="E229" s="4">
-        <v>30324</v>
+        <v>30366</v>
       </c>
     </row>
     <row r="230" ht="14" customHeight="1">
@@ -4950,16 +4950,16 @@
         <v>233</v>
       </c>
       <c r="B230" s="4">
-        <v>18060</v>
+        <v>18070</v>
       </c>
       <c r="C230" s="4">
         <v>1151</v>
       </c>
       <c r="D230" s="4">
-        <v>12923</v>
+        <v>12966</v>
       </c>
       <c r="E230" s="4">
-        <v>32134</v>
+        <v>32187</v>
       </c>
     </row>
     <row r="231" ht="14" customHeight="1">
@@ -4967,16 +4967,16 @@
         <v>234</v>
       </c>
       <c r="B231" s="4">
-        <v>17990</v>
+        <v>18000</v>
       </c>
       <c r="C231" s="4">
         <v>2635</v>
       </c>
       <c r="D231" s="4">
-        <v>11628</v>
+        <v>11663</v>
       </c>
       <c r="E231" s="4">
-        <v>32253</v>
+        <v>32298</v>
       </c>
     </row>
     <row r="232" ht="14" customHeight="1">
@@ -4990,10 +4990,10 @@
         <v>107</v>
       </c>
       <c r="D232" s="4">
-        <v>4864</v>
+        <v>4873</v>
       </c>
       <c r="E232" s="4">
-        <v>6339</v>
+        <v>6348</v>
       </c>
     </row>
     <row r="233" ht="14" customHeight="1">
@@ -5001,16 +5001,16 @@
         <v>236</v>
       </c>
       <c r="B233" s="4">
-        <v>52326</v>
+        <v>52366</v>
       </c>
       <c r="C233" s="4">
         <v>647</v>
       </c>
       <c r="D233" s="4">
-        <v>7513</v>
+        <v>7546</v>
       </c>
       <c r="E233" s="4">
-        <v>60486</v>
+        <v>60559</v>
       </c>
     </row>
     <row r="234" ht="14" customHeight="1">
@@ -5018,16 +5018,16 @@
         <v>237</v>
       </c>
       <c r="B234" s="4">
-        <v>75719</v>
+        <v>75804</v>
       </c>
       <c r="C234" s="4">
         <v>1370</v>
       </c>
       <c r="D234" s="4">
-        <v>38676</v>
+        <v>38742</v>
       </c>
       <c r="E234" s="4">
-        <v>115765</v>
+        <v>115916</v>
       </c>
     </row>
     <row r="235" ht="14" customHeight="1">
@@ -5035,16 +5035,16 @@
         <v>238</v>
       </c>
       <c r="B235" s="4">
-        <v>38861</v>
+        <v>38923</v>
       </c>
       <c r="C235" s="4">
-        <v>2552</v>
+        <v>2555</v>
       </c>
       <c r="D235" s="4">
-        <v>25713</v>
+        <v>25769</v>
       </c>
       <c r="E235" s="4">
-        <v>67126</v>
+        <v>67247</v>
       </c>
     </row>
     <row r="236" ht="14" customHeight="1">
@@ -5052,16 +5052,16 @@
         <v>239</v>
       </c>
       <c r="B236" s="4">
-        <v>84504</v>
+        <v>84599</v>
       </c>
       <c r="C236" s="4">
-        <v>6480</v>
+        <v>6510</v>
       </c>
       <c r="D236" s="4">
-        <v>37793</v>
+        <v>37845</v>
       </c>
       <c r="E236" s="4">
-        <v>128777</v>
+        <v>128954</v>
       </c>
     </row>
     <row r="237" ht="14" customHeight="1">
@@ -5069,16 +5069,16 @@
         <v>240</v>
       </c>
       <c r="B237" s="4">
-        <v>187166</v>
+        <v>187315</v>
       </c>
       <c r="C237" s="4">
-        <v>3433</v>
+        <v>3440</v>
       </c>
       <c r="D237" s="4">
-        <v>54083</v>
+        <v>54120</v>
       </c>
       <c r="E237" s="4">
-        <v>244682</v>
+        <v>244875</v>
       </c>
     </row>
     <row r="238" ht="14" customHeight="1">
@@ -5086,16 +5086,16 @@
         <v>241</v>
       </c>
       <c r="B238" s="4">
-        <v>71813</v>
+        <v>71900</v>
       </c>
       <c r="C238" s="4">
-        <v>2470</v>
+        <v>2472</v>
       </c>
       <c r="D238" s="4">
-        <v>14054</v>
+        <v>14067</v>
       </c>
       <c r="E238" s="4">
-        <v>88337</v>
+        <v>88439</v>
       </c>
     </row>
     <row r="239" ht="14" customHeight="1">
@@ -5103,16 +5103,16 @@
         <v>242</v>
       </c>
       <c r="B239" s="4">
-        <v>6648</v>
+        <v>6649</v>
       </c>
       <c r="C239" s="4">
         <v>246</v>
       </c>
       <c r="D239" s="4">
-        <v>3734</v>
+        <v>3737</v>
       </c>
       <c r="E239" s="4">
-        <v>10628</v>
+        <v>10632</v>
       </c>
     </row>
     <row r="240" ht="14" customHeight="1">
@@ -5120,16 +5120,16 @@
         <v>243</v>
       </c>
       <c r="B240" s="4">
-        <v>61903</v>
+        <v>61945</v>
       </c>
       <c r="C240" s="4">
-        <v>2166</v>
+        <v>2168</v>
       </c>
       <c r="D240" s="4">
-        <v>34054</v>
+        <v>34135</v>
       </c>
       <c r="E240" s="4">
-        <v>98123</v>
+        <v>98248</v>
       </c>
     </row>
     <row r="241" ht="14" customHeight="1">
@@ -5137,16 +5137,16 @@
         <v>244</v>
       </c>
       <c r="B241" s="4">
-        <v>646906</v>
+        <v>647435</v>
       </c>
       <c r="C241" s="4">
-        <v>7281</v>
+        <v>7290</v>
       </c>
       <c r="D241" s="4">
-        <v>178959</v>
+        <v>180347</v>
       </c>
       <c r="E241" s="4">
-        <v>833146</v>
+        <v>835072</v>
       </c>
     </row>
     <row r="242" ht="14" customHeight="1">
@@ -5154,16 +5154,16 @@
         <v>245</v>
       </c>
       <c r="B242" s="4">
-        <v>55277</v>
+        <v>55615</v>
       </c>
       <c r="C242" s="4">
-        <v>2728</v>
+        <v>2732</v>
       </c>
       <c r="D242" s="4">
-        <v>20101</v>
+        <v>20230</v>
       </c>
       <c r="E242" s="4">
-        <v>78106</v>
+        <v>78577</v>
       </c>
     </row>
     <row r="243" ht="14" customHeight="1">
@@ -5171,16 +5171,16 @@
         <v>246</v>
       </c>
       <c r="B243" s="4">
-        <v>2747</v>
+        <v>2750</v>
       </c>
       <c r="C243" s="4">
         <v>536</v>
       </c>
       <c r="D243" s="4">
-        <v>5710</v>
+        <v>5718</v>
       </c>
       <c r="E243" s="4">
-        <v>8993</v>
+        <v>9004</v>
       </c>
     </row>
     <row r="244" ht="14" customHeight="1">
@@ -5188,16 +5188,16 @@
         <v>247</v>
       </c>
       <c r="B244" s="4">
-        <v>174617</v>
+        <v>174828</v>
       </c>
       <c r="C244" s="4">
-        <v>12870</v>
+        <v>12954</v>
       </c>
       <c r="D244" s="4">
-        <v>94641</v>
+        <v>94791</v>
       </c>
       <c r="E244" s="4">
-        <v>282128</v>
+        <v>282573</v>
       </c>
     </row>
     <row r="245" ht="14" customHeight="1">
@@ -5205,16 +5205,16 @@
         <v>248</v>
       </c>
       <c r="B245" s="4">
-        <v>20401</v>
+        <v>20421</v>
       </c>
       <c r="C245" s="4">
         <v>870</v>
       </c>
       <c r="D245" s="4">
-        <v>41973</v>
+        <v>42007</v>
       </c>
       <c r="E245" s="4">
-        <v>63244</v>
+        <v>63298</v>
       </c>
     </row>
     <row r="246" ht="14" customHeight="1">
@@ -5222,16 +5222,16 @@
         <v>249</v>
       </c>
       <c r="B246" s="4">
-        <v>58617</v>
+        <v>58670</v>
       </c>
       <c r="C246" s="4">
         <v>262</v>
       </c>
       <c r="D246" s="4">
-        <v>11581</v>
+        <v>11596</v>
       </c>
       <c r="E246" s="4">
-        <v>70460</v>
+        <v>70528</v>
       </c>
     </row>
     <row r="247" ht="14" customHeight="1">
@@ -5239,16 +5239,16 @@
         <v>250</v>
       </c>
       <c r="B247" s="4">
-        <v>959263</v>
+        <v>960322</v>
       </c>
       <c r="C247" s="4">
-        <v>44334</v>
+        <v>44629</v>
       </c>
       <c r="D247" s="4">
-        <v>258178</v>
+        <v>258902</v>
       </c>
       <c r="E247" s="4">
-        <v>1261775</v>
+        <v>1263853</v>
       </c>
     </row>
     <row r="248" ht="14" customHeight="1">
@@ -5256,16 +5256,16 @@
         <v>251</v>
       </c>
       <c r="B248" s="4">
-        <v>60452</v>
+        <v>60522</v>
       </c>
       <c r="C248" s="4">
         <v>1731</v>
       </c>
       <c r="D248" s="4">
-        <v>30574</v>
+        <v>30939</v>
       </c>
       <c r="E248" s="4">
-        <v>92757</v>
+        <v>93192</v>
       </c>
     </row>
     <row r="249" ht="14" customHeight="1">
@@ -5273,7 +5273,7 @@
         <v>252</v>
       </c>
       <c r="B249" s="4">
-        <v>2339</v>
+        <v>2342</v>
       </c>
       <c r="C249" s="4">
         <v>75</v>
@@ -5282,7 +5282,7 @@
         <v>933</v>
       </c>
       <c r="E249" s="4">
-        <v>3347</v>
+        <v>3350</v>
       </c>
     </row>
     <row r="250" ht="14" customHeight="1">
@@ -5290,16 +5290,16 @@
         <v>253</v>
       </c>
       <c r="B250" s="4">
-        <v>85550</v>
+        <v>85630</v>
       </c>
       <c r="C250" s="4">
-        <v>4279</v>
+        <v>4282</v>
       </c>
       <c r="D250" s="4">
-        <v>20947</v>
+        <v>20984</v>
       </c>
       <c r="E250" s="4">
-        <v>110776</v>
+        <v>110896</v>
       </c>
     </row>
     <row r="251" ht="14" customHeight="1">
@@ -5307,16 +5307,16 @@
         <v>254</v>
       </c>
       <c r="B251" s="4">
-        <v>33669</v>
+        <v>33702</v>
       </c>
       <c r="C251" s="4">
-        <v>2559</v>
+        <v>2560</v>
       </c>
       <c r="D251" s="4">
-        <v>23451</v>
+        <v>23539</v>
       </c>
       <c r="E251" s="4">
-        <v>59679</v>
+        <v>59801</v>
       </c>
     </row>
     <row r="252" ht="14" customHeight="1">
@@ -5324,16 +5324,16 @@
         <v>255</v>
       </c>
       <c r="B252" s="4">
-        <v>3220</v>
+        <v>3222</v>
       </c>
       <c r="C252" s="4">
         <v>175</v>
       </c>
       <c r="D252" s="4">
-        <v>2762</v>
+        <v>2764</v>
       </c>
       <c r="E252" s="4">
-        <v>6157</v>
+        <v>6161</v>
       </c>
     </row>
     <row r="253" ht="14" customHeight="1">
@@ -5341,16 +5341,16 @@
         <v>256</v>
       </c>
       <c r="B253" s="4">
-        <v>12940</v>
+        <v>12956</v>
       </c>
       <c r="C253" s="4">
         <v>729</v>
       </c>
       <c r="D253" s="4">
-        <v>8260</v>
+        <v>8262</v>
       </c>
       <c r="E253" s="4">
-        <v>21929</v>
+        <v>21947</v>
       </c>
     </row>
     <row r="254" ht="14" customHeight="1">
@@ -5358,16 +5358,16 @@
         <v>257</v>
       </c>
       <c r="B254" s="4">
-        <v>20833</v>
+        <v>20920</v>
       </c>
       <c r="C254" s="4">
         <v>176</v>
       </c>
       <c r="D254" s="4">
-        <v>20500</v>
+        <v>20547</v>
       </c>
       <c r="E254" s="4">
-        <v>41509</v>
+        <v>41643</v>
       </c>
     </row>
     <row r="255" ht="14" customHeight="1">
@@ -5375,16 +5375,16 @@
         <v>258</v>
       </c>
       <c r="B255" s="4">
-        <v>17042</v>
+        <v>17055</v>
       </c>
       <c r="C255" s="4">
         <v>271</v>
       </c>
       <c r="D255" s="4">
-        <v>4029</v>
+        <v>4039</v>
       </c>
       <c r="E255" s="4">
-        <v>21342</v>
+        <v>21365</v>
       </c>
     </row>
     <row r="256" ht="14" customHeight="1">
@@ -5392,16 +5392,16 @@
         <v>259</v>
       </c>
       <c r="B256" s="4">
-        <v>502961</v>
+        <v>508237</v>
       </c>
       <c r="C256" s="4">
-        <v>14591</v>
+        <v>14592</v>
       </c>
       <c r="D256" s="4">
-        <v>19849</v>
+        <v>19915</v>
       </c>
       <c r="E256" s="4">
-        <v>537401</v>
+        <v>542744</v>
       </c>
     </row>
     <row r="257" ht="14" customHeight="1">
@@ -5409,16 +5409,16 @@
         <v>260</v>
       </c>
       <c r="B257" s="4">
-        <v>46479798</v>
+        <v>46554743</v>
       </c>
       <c r="C257" s="4">
-        <v>1858023</v>
+        <v>1861687</v>
       </c>
       <c r="D257" s="4">
-        <v>12637073</v>
+        <v>12672951</v>
       </c>
       <c r="E257" s="4">
-        <v>60974894</v>
+        <v>61089381</v>
       </c>
     </row>
     <row r="258" ht="12" customHeight="1"/>
